--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -20,7 +20,1012 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>gene product</t>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>kinase binding</t>
+  </si>
+  <si>
+    <t>GO:0019900</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>kinase activity</t>
+  </si>
+  <si>
+    <t>GO:0016301</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>separeted from</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>PATO:0001505</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>PATO:0000648</t>
+  </si>
+  <si>
+    <t>ubb</t>
+  </si>
+  <si>
+    <t>ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>SO:0000307</t>
+  </si>
+  <si>
+    <t>DNA sequenze rich in CpG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9di</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toll like receptor 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9+TLR9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGb of TLR9di</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>binding domains</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK4</t>
+  </si>
+  <si>
+    <t>ddb of MyD88 and of IRK1</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>tf6bd of TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
+  </si>
+  <si>
+    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>pk63ub located in cyto</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
+  </si>
+  <si>
+    <t>E3l of pelp and ubb of IRK1</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>protein aminoacid phosphoriltion</t>
+  </si>
+  <si>
+    <t>GO:0006468</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+  </si>
+  <si>
+    <t>GO:0043241</t>
+  </si>
+  <si>
+    <t>Fhabp</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>protein K63-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0070534</t>
+  </si>
+  <si>
+    <t>pK48ub</t>
+  </si>
+  <si>
+    <t>protein K48-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>ppub</t>
+  </si>
+  <si>
+    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGbp located in the endosome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>ddplocated in intrendo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
+  </si>
+  <si>
+    <t>kb of IKbK and ka of tak1</t>
+  </si>
+  <si>
+    <t>IKBNfkb</t>
+  </si>
+  <si>
+    <t>ob of NFKB part of IKBNfkb</t>
+  </si>
+  <si>
+    <t>csNfkb located in cyto</t>
+  </si>
+  <si>
+    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
+  </si>
+  <si>
+    <t>kb of IKB and ka of IKbKp</t>
+  </si>
+  <si>
+    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>ubb of IKBp</t>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
+  </si>
+  <si>
+    <t>sf of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>pcd and rcskb located in cyto</t>
+  </si>
+  <si>
+    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
+  </si>
+  <si>
+    <t>protsb of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>ubdpcp located in cyto</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>tak1+tab1+tab2+tab3</t>
+  </si>
+  <si>
+    <t>nemo+Ikka+IKKb</t>
+  </si>
+  <si>
+    <t>CC in GO</t>
+  </si>
+  <si>
+    <t>IKB +NFKB</t>
+  </si>
+  <si>
+    <t>NFKB ??</t>
+  </si>
+  <si>
+    <t>p50+p65</t>
+  </si>
+  <si>
+    <t>Ubc13+Uev1A</t>
+  </si>
+  <si>
+    <t>CpGDNA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nucleic acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>tirdbp located in endo</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,1011 +1292,6 @@
   <si>
     <t>TLR9diCpGmIRK4K1p-&gt;TLR9diCpGmIRK4IK1pp</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGbp located in the endosome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>endosome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>ddplocated in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
-  </si>
-  <si>
-    <t>kb of IKbK and ka of tak1</t>
-  </si>
-  <si>
-    <t>IKBNfkb</t>
-  </si>
-  <si>
-    <t>ob of NFKB part of IKBNfkb</t>
-  </si>
-  <si>
-    <t>csNfkb located in cyto</t>
-  </si>
-  <si>
-    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
-  </si>
-  <si>
-    <t>kb of IKB and ka of IKbKp</t>
-  </si>
-  <si>
-    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>ubb of IKBp</t>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
-  </si>
-  <si>
-    <t>sf of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>pcd and rcskb located in cyto</t>
-  </si>
-  <si>
-    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
-  </si>
-  <si>
-    <t>protsb of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>ubdpcp located in cyto</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>tak1+tab1+tab2+tab3</t>
-  </si>
-  <si>
-    <t>nemo+Ikka+IKKb</t>
-  </si>
-  <si>
-    <t>CC in GO</t>
-  </si>
-  <si>
-    <t>IKB +NFKB</t>
-  </si>
-  <si>
-    <t>NFKB ??</t>
-  </si>
-  <si>
-    <t>p50+p65</t>
-  </si>
-  <si>
-    <t>Ubc13+Uev1A</t>
-  </si>
-  <si>
-    <t>CpGDNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nucleic acid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO:0000307</t>
-  </si>
-  <si>
-    <t>DNA sequenze rich in CpG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9+TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGb of TLR9di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>binding domains</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK4</t>
-  </si>
-  <si>
-    <t>ddb of MyD88 and of IRK1</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>tf6bd of TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
-  </si>
-  <si>
-    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>pk63ub located in cyto</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
-  </si>
-  <si>
-    <t>E3l of pelp and ubb of IRK1</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>protein aminoacid phosphoriltion</t>
-  </si>
-  <si>
-    <t>GO:0006468</t>
-  </si>
-  <si>
-    <t>pcd</t>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-  </si>
-  <si>
-    <t>GO:0043241</t>
-  </si>
-  <si>
-    <t>Fhabp</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0070534</t>
-  </si>
-  <si>
-    <t>pK48ub</t>
-  </si>
-  <si>
-    <t>protein K48-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>ppub</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>kinase binding</t>
-  </si>
-  <si>
-    <t>GO:0019900</t>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>kinase activity</t>
-  </si>
-  <si>
-    <t>GO:0016301</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>separeted from</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>PATO:0001505</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>PATO:0000648</t>
-  </si>
-  <si>
-    <t>ubb</t>
-  </si>
-  <si>
-    <t>ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
-  </si>
-  <si>
-    <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
-  </si>
-  <si>
-    <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
-  </si>
-  <si>
-    <t>gene product</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1736,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1749,28 +1749,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
       <c r="C2" s="7">
         <v>38633</v>
@@ -1779,7 +1779,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>368</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1793,10 +1793,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1845,19 +1845,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>335</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1871,16 +1871,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1903,32 +1903,32 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>339</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>123</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="26">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1959,153 +1959,157 @@
     </row>
     <row r="20" spans="1:6" ht="26">
       <c r="A20" s="1" t="s">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>342</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>344</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>345</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="39">
+    <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>350</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="78">
       <c r="A23" s="1" t="s">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="26">
       <c r="A24" s="1" t="s">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="52">
       <c r="A25" s="1" t="s">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>359</v>
+        <v>84</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>360</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" ht="52">
       <c r="A27" s="1" t="s">
-        <v>361</v>
+        <v>86</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>362</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="26">
       <c r="A28" s="1" t="s">
-        <v>363</v>
+        <v>88</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>364</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>366</v>
+        <v>91</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="39">
       <c r="A29" s="1" t="s">
-        <v>367</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>368</v>
+        <v>93</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2113,13 +2117,13 @@
     </row>
     <row r="30" spans="1:6" ht="39">
       <c r="A30" s="1" t="s">
-        <v>369</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>365</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2127,209 +2131,209 @@
     </row>
     <row r="31" spans="1:6" ht="26">
       <c r="A31" s="1" t="s">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>372</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>373</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>374</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="26">
       <c r="A32" s="1" t="s">
-        <v>375</v>
+        <v>100</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>376</v>
+        <v>101</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>377</v>
+        <v>102</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="52">
       <c r="A33" s="1" t="s">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>380</v>
+        <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="39">
       <c r="A34" s="1" t="s">
-        <v>381</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>382</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="78">
       <c r="A35" s="1" t="s">
-        <v>383</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="39">
       <c r="A36" s="1" t="s">
-        <v>385</v>
+        <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="52">
       <c r="A37" s="1" t="s">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="52">
       <c r="A38" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="52">
       <c r="A39" s="1" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" spans="1:6" ht="26">
       <c r="A40" s="1" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" ht="78">
       <c r="A41" s="1" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>296</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>297</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="65">
       <c r="A42" s="1" t="s">
-        <v>298</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>263</v>
+        <v>175</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>265</v>
+        <v>177</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2337,221 +2341,221 @@
     </row>
     <row r="44" spans="1:6" ht="52">
       <c r="A44" s="1" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="78">
       <c r="A45" s="1" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>271</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="65">
       <c r="A46" s="1" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>343</v>
+        <v>68</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="65">
       <c r="A47" s="1" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="65">
       <c r="A48" s="1" t="s">
-        <v>276</v>
+        <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="52">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="52">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>45</v>
+        <v>373</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" ht="52">
       <c r="A51" s="1" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="78">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>375</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="91">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>377</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" ht="26">
       <c r="A55" s="1" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" ht="78">
       <c r="A56" s="1" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>340</v>
+        <v>65</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" ht="78">
       <c r="A57" s="1" t="s">
-        <v>285</v>
+        <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>284</v>
+        <v>9</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2559,13 +2563,13 @@
     </row>
     <row r="58" spans="1:6" ht="65">
       <c r="A58" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2573,13 +2577,13 @@
     </row>
     <row r="59" spans="1:6" ht="91">
       <c r="A59" s="1" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>290</v>
+        <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2587,237 +2591,237 @@
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>132</v>
+        <v>210</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="26">
       <c r="A62" s="1" t="s">
-        <v>2</v>
+        <v>330</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3</v>
+        <v>331</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1</v>
+        <v>329</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="26">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="26">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>299</v>
+        <v>24</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>301</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="39">
       <c r="A66" s="1" t="s">
-        <v>303</v>
+        <v>28</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>304</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="39">
       <c r="A67" s="5" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>308</v>
+        <v>33</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="39">
       <c r="A68" s="1" t="s">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>310</v>
+        <v>35</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>312</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="26">
       <c r="A69" s="1" t="s">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="26">
       <c r="A70" s="1" t="s">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="104">
       <c r="A71" s="1" t="s">
-        <v>318</v>
+        <v>43</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>319</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" ht="39">
       <c r="A72" s="1" t="s">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>322</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>324</v>
+        <v>49</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>325</v>
+        <v>50</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>326</v>
+        <v>51</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -2825,605 +2829,605 @@
     </row>
     <row r="75" spans="1:6" ht="52">
       <c r="A75" s="1" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="39">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="39">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="39">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="52">
       <c r="A82" s="1" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="52">
       <c r="A83" s="1" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="52">
       <c r="A84" s="1" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="39">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="39">
       <c r="A86" s="1" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="39">
       <c r="A87" s="1" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="65">
       <c r="A88" s="1" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="78">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>277</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>69</v>
+        <v>279</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>73</v>
+        <v>283</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="52">
       <c r="A92" s="1" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="52">
       <c r="A93" s="1" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="52">
       <c r="A94" s="1" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6" ht="26">
       <c r="A95" s="1" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>222</v>
+        <v>134</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="26">
       <c r="A97" s="1" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>225</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="26">
       <c r="A99" s="1" t="s">
-        <v>231</v>
+        <v>143</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>232</v>
+        <v>144</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>233</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="39">
       <c r="A100" s="1" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="26">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="26">
       <c r="A103" s="1" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="52">
       <c r="A104" s="1" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="52">
       <c r="A105" s="1" t="s">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="39">
       <c r="A106" s="1" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>248</v>
+        <v>160</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="26">
       <c r="A107" s="1" t="s">
-        <v>249</v>
+        <v>161</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>250</v>
+        <v>162</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>252</v>
+        <v>164</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>256</v>
+        <v>168</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>258</v>
+        <v>170</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" ht="39">
       <c r="A110" s="1" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="26">
       <c r="A111" s="1" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>9</v>
+        <v>337</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
     <row r="112" spans="1:6" ht="26">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -3431,32 +3435,32 @@
     </row>
     <row r="113" spans="1:6" ht="26">
       <c r="A113" s="1" t="s">
-        <v>13</v>
+        <v>341</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>14</v>
+        <v>342</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>15</v>
+        <v>343</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
     <row r="114" spans="1:6" ht="39">
       <c r="A114" s="1" t="s">
-        <v>16</v>
+        <v>344</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>17</v>
+        <v>345</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>254</v>
+        <v>166</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>18</v>
+        <v>346</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3479,33 +3483,33 @@
     </row>
     <row r="117" spans="1:6" ht="26">
       <c r="A117" s="2" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>8</v>
+        <v>336</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3521,13 +3525,13 @@
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3535,45 +3539,45 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>139</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="65">
       <c r="A122" s="6" t="s">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>75</v>
+        <v>285</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>141</v>
+        <v>219</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="65">
       <c r="A123" s="1" t="s">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3581,13 +3585,13 @@
     </row>
     <row r="124" spans="1:6" ht="52">
       <c r="A124" s="1" t="s">
-        <v>59</v>
+        <v>387</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -3595,13 +3599,13 @@
     </row>
     <row r="125" spans="1:6" ht="78">
       <c r="A125" s="1" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3609,13 +3613,13 @@
     </row>
     <row r="126" spans="1:6" ht="78">
       <c r="A126" s="1" t="s">
-        <v>36</v>
+        <v>364</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -3623,29 +3627,29 @@
     </row>
     <row r="127" spans="1:6" ht="39">
       <c r="A127" s="1" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -3653,61 +3657,61 @@
     </row>
     <row r="129" spans="1:6" ht="65">
       <c r="A129" s="1" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="65">
       <c r="A130" s="1" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="52">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="52">
       <c r="A132" s="1" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3715,29 +3719,29 @@
     </row>
     <row r="133" spans="1:6" ht="91">
       <c r="A133" s="1" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>81</v>
+        <v>291</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>82</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="65">
       <c r="A134" s="1" t="s">
-        <v>83</v>
+        <v>293</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>84</v>
+        <v>294</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3745,13 +3749,13 @@
     </row>
     <row r="135" spans="1:6" ht="156">
       <c r="A135" s="1" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>87</v>
+        <v>297</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3759,13 +3763,13 @@
     </row>
     <row r="136" spans="1:6" ht="39">
       <c r="A136" s="1" t="s">
-        <v>88</v>
+        <v>298</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3773,13 +3777,13 @@
     </row>
     <row r="137" spans="1:6" ht="117">
       <c r="A137" s="1" t="s">
-        <v>91</v>
+        <v>301</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>92</v>
+        <v>302</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3787,13 +3791,13 @@
     </row>
     <row r="138" spans="1:6" ht="52">
       <c r="A138" s="1" t="s">
-        <v>93</v>
+        <v>303</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3801,13 +3805,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>96</v>
+        <v>306</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>98</v>
+        <v>308</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3815,13 +3819,13 @@
     </row>
     <row r="140" spans="1:6" ht="78">
       <c r="A140" s="1" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>101</v>
+        <v>311</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -3829,13 +3833,13 @@
     </row>
     <row r="141" spans="1:6" ht="39">
       <c r="A141" s="1" t="s">
-        <v>102</v>
+        <v>312</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -3843,13 +3847,13 @@
     </row>
     <row r="142" spans="1:6" ht="52">
       <c r="A142" s="1" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -3881,10 +3885,10 @@
     </row>
     <row r="146" spans="1:6" ht="65">
       <c r="A146" s="2" t="s">
-        <v>106</v>
+        <v>316</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>107</v>
+        <v>317</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3901,10 +3905,10 @@
     </row>
     <row r="148" spans="1:6" ht="26">
       <c r="A148" s="1" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>109</v>
+        <v>319</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3914,21 +3918,21 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>112</v>
+        <v>322</v>
       </c>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3937,10 +3941,10 @@
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1" t="s">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3950,13 +3954,13 @@
     <row r="152" spans="1:6" ht="26">
       <c r="A152" s="1"/>
       <c r="B152" s="1" t="s">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1" t="s">
-        <v>111</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4010,140 +4014,140 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>330</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>332</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>333</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>334</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>335</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>56</v>
+        <v>384</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>385</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>338</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="78">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>54</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>355</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>26</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="78">
       <c r="A43" s="4" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>30</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="46" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>34</v>
+        <v>362</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39">
       <c r="A45" s="4" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>350</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -22,6 +22,78 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
   <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
     <t>Ubc13</t>
   </si>
   <si>
@@ -262,43 +334,34 @@
     <t>TRAF6</t>
   </si>
   <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
   </si>
   <si>
     <t>L-lysine at position 63 of a protein</t>
@@ -556,37 +619,25 @@
     <t>IKB</t>
   </si>
   <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
   </si>
   <si>
     <t>complex modified</t>
@@ -790,34 +841,24 @@
     <t>Fhabp</t>
   </si>
   <si>
-    <t>fha domain binding process</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>File TLR9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 nfKb signaling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in intrendo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ring like domain binding process</t>
@@ -977,25 +1018,23 @@
     <t>ubdpcp located in cyto</t>
   </si>
   <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
+    <t>TLR9diCpGmIF7</t>
+  </si>
+  <si>
+    <t>TLR9diCpGm+IRF7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4K1p-&gt;TLR9diCpGmIRK4IK1pp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>tak1+tab1+tab2+tab3</t>
@@ -1254,56 +1293,11 @@
     <t>TLR9diCpGmIRK4IRK1pp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 nfKb signaling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIF7</t>
-  </si>
-  <si>
-    <t>TLR9diCpGm+IRF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4K1p-&gt;TLR9diCpGmIRK4IK1pp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -1734,10 +1728,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1749,28 +1743,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>272</v>
       </c>
       <c r="C2" s="7">
         <v>38633</v>
@@ -1779,7 +1773,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1793,10 +1787,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1845,19 +1839,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1871,16 +1865,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1903,1572 +1897,1590 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="26">
+    <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" spans="1:6" ht="26">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" spans="1:6" ht="26">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:6" ht="52">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" ht="26">
+    <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="78">
+    <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="26">
+    <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="52">
+    <row r="25" spans="1:6" ht="26">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" ht="52">
+    <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" ht="26">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="39">
+    <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" ht="39">
+    <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" ht="26">
+    <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="26">
+    <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="52">
+    <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" ht="39">
+    <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" ht="78">
+    <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" ht="39">
+    <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" ht="52">
+    <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="52">
+    <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" ht="52">
+    <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" ht="26">
+        <v>197</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" ht="78">
+    <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" ht="65">
+    <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" ht="52">
+    <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" ht="78">
+    <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="65">
+    <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="65">
+    <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>178</v>
+        <v>383</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="65">
+    <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" ht="52">
+    <row r="49" spans="1:6" ht="78">
       <c r="A49" s="1" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="52">
+    <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" ht="52">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>374</v>
+        <v>208</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" ht="78">
+    <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>376</v>
+        <v>210</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>189</v>
+        <v>22</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" ht="91">
+    <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>378</v>
+        <v>212</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" ht="26">
+    <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" ht="78">
+    <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" ht="78">
+    <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>11</v>
+        <v>225</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="65">
+    <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" ht="91">
+    <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" ht="26">
+    <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>331</v>
+        <v>50</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" ht="26">
+    <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" ht="26">
-      <c r="A64" s="1" t="s">
-        <v>214</v>
+    <row r="64" spans="1:6" ht="39">
+      <c r="A64" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" ht="39">
+    <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" ht="39">
-      <c r="A67" s="5" t="s">
-        <v>31</v>
+    <row r="67" spans="1:6" ht="26">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" ht="39">
+    <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" ht="26">
+    <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6" ht="26">
+    <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6" ht="104">
+    <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" ht="39">
+    <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>50</v>
+        <v>267</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D74" s="1"/>
+        <v>262</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6" ht="52">
+    <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>250</v>
+        <v>107</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6" ht="39">
+    <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6" ht="39">
+    <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6" ht="39">
+    <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6" ht="52">
+    <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6" ht="52">
+    <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6" ht="52">
+    <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>267</v>
+        <v>129</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" ht="39">
+    <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" ht="39">
+    <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>107</v>
+        <v>289</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>30</v>
+        <v>290</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" ht="39">
+    <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6" ht="65">
+    <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>112</v>
+        <v>296</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6" ht="78">
+    <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>279</v>
+        <v>145</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>280</v>
+        <v>146</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6" ht="52">
+    <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>245</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6" ht="52">
+    <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6" ht="52">
+    <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6" ht="26">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" ht="26">
+    <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="26">
+    <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="39">
+    <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="26">
+    <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="26">
+    <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="52">
+    <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="52">
+    <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" ht="39">
+    <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6" ht="26">
+    <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>36</v>
+        <v>187</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>167</v>
+        <v>348</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>168</v>
+        <v>349</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>169</v>
+        <v>350</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>170</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" ht="39">
+    <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>171</v>
+        <v>351</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>173</v>
+        <v>353</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" ht="26">
+    <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" ht="26">
-      <c r="A112" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>166</v>
-      </c>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="1:6" ht="26">
-      <c r="A113" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>343</v>
-      </c>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6" ht="39">
-      <c r="A114" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D114" s="1" t="s">
+    <row r="114" spans="1:6" ht="26">
+      <c r="A114" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="52">
+      <c r="A115" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3481,57 +3493,61 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6" ht="26">
-      <c r="A117" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>216</v>
-      </c>
+    <row r="117" spans="1:6" ht="65">
+      <c r="A117" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="65">
+      <c r="A119" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>297</v>
+      </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3539,265 +3555,261 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="65">
-      <c r="A122" s="6" t="s">
-        <v>334</v>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" ht="78">
+      <c r="A122" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="65">
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6" ht="52">
+    <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>387</v>
+        <v>242</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" ht="78">
+      <c r="F124" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>223</v>
+        <v>375</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="1:6" ht="78">
+    <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>356</v>
+        <v>249</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" ht="39">
+      <c r="F126" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" ht="65">
+      <c r="F128" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="65">
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="52">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="52">
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="91">
+    <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="65">
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="156">
+    <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="1:6" ht="39">
+    <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="1:6" ht="117">
+    <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="1:6" ht="52">
+    <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>305</v>
+        <v>134</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3805,110 +3817,104 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>306</v>
+        <v>21</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>307</v>
+        <v>201</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="1:6" ht="78">
-      <c r="A140" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>311</v>
-      </c>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6" ht="39">
-      <c r="A141" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>113</v>
-      </c>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6" ht="52">
-      <c r="A142" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>315</v>
-      </c>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
+    <row r="143" spans="1:6" ht="65">
+      <c r="A143" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
+    <row r="145" spans="1:6" ht="26">
+      <c r="A145" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6" ht="65">
-      <c r="A146" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>317</v>
+    <row r="146" spans="1:6" ht="26">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="1" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
+      <c r="A147" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="1:6" ht="26">
+    <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3918,73 +3924,37 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>322</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>324</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="1:6" ht="26">
+    <row r="152" spans="1:6">
       <c r="A152" s="1"/>
-      <c r="B152" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4014,140 +3984,140 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26">
       <c r="A3" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>381</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26">
       <c r="A17" s="4" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>385</v>
+        <v>326</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>386</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="26">
       <c r="A40" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="78">
       <c r="A41" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>382</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="78">
       <c r="A43" s="4" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="46" customHeight="1">
       <c r="A44" s="4" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39">
       <c r="A45" s="4" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="1640" yWindow="-80" windowWidth="21600" windowHeight="15320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TLR9 nfkb" sheetId="1" r:id="rId1"/>
-    <sheet name="TLR9IRF7" sheetId="2" r:id="rId2"/>
+    <sheet name="TLR901" sheetId="1" r:id="rId1"/>
+    <sheet name="TLR902" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -20,984 +20,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="388">
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="430">
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6+IRF7-&gt;TLR9diCpGmIRK4IK1pptf6IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p+IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6+IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modifiction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp</t>
+  </si>
+  <si>
+    <t>TFDBp located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in  endo cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp</t>
+  </si>
+  <si>
+    <t>nlsb of IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein homodimerization process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear localization sequence binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043241 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+  </si>
+  <si>
+    <t>pcompxda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of irfp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdsb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">post transcriptional modification </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gene product</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>kinase binding</t>
-  </si>
-  <si>
-    <t>GO:0019900</t>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>kinase activity</t>
-  </si>
-  <si>
-    <t>GO:0016301</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>separeted from</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>PATO:0001505</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>PATO:0000648</t>
-  </si>
-  <si>
-    <t>ubb</t>
-  </si>
-  <si>
-    <t>ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>SO:0000307</t>
-  </si>
-  <si>
-    <t>DNA sequenze rich in CpG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9+TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGb of TLR9di</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>binding domains</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK4</t>
-  </si>
-  <si>
-    <t>ddb of MyD88 and of IRK1</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>tf6bd of TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
-  </si>
-  <si>
-    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>pk63ub located in cyto</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
-  </si>
-  <si>
-    <t>E3l of pelp and ubb of IRK1</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>protein aminoacid phosphoriltion</t>
-  </si>
-  <si>
-    <t>GO:0006468</t>
-  </si>
-  <si>
-    <t>pcd</t>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-  </si>
-  <si>
-    <t>GO:0043241</t>
-  </si>
-  <si>
-    <t>Fhabp</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>File TLR9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 nfKb signaling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0070534</t>
-  </si>
-  <si>
-    <t>pK48ub</t>
-  </si>
-  <si>
-    <t>protein K48-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>ppub</t>
-  </si>
-  <si>
-    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGbp located in the endosome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>endosome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>ddplocated in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000002049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGm complex dimer + IRAk4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
-  </si>
-  <si>
-    <t>kb of IKbK and ka of tak1</t>
-  </si>
-  <si>
-    <t>IKBNfkb</t>
-  </si>
-  <si>
-    <t>ob of NFKB part of IKBNfkb</t>
-  </si>
-  <si>
-    <t>csNfkb located in cyto</t>
-  </si>
-  <si>
-    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
-  </si>
-  <si>
-    <t>kb of IKB and ka of IKbKp</t>
-  </si>
-  <si>
-    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>ubb of IKBp</t>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spreadsheet id TLR02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFBD of tank </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
@@ -1018,23 +286,8 @@
     <t>ubdpcp located in cyto</t>
   </si>
   <si>
-    <t>TLR9diCpGmIF7</t>
-  </si>
-  <si>
-    <t>TLR9diCpGm+IRF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TLR9diCpGmIRK4K1p-&gt;TLR9diCpGmIRK4IK1pp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tak1+tab1+tab2+tab3</t>
@@ -1059,30 +312,30 @@
   </si>
   <si>
     <t>CpGDNA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nucleic acid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tirdbp located in endo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GO:0031302</t>
   </si>
   <si>
     <t>intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Intrinsic to endosome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ddp located in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1103,7 +356,7 @@
       </rPr>
       <t>-&gt; TLR9diCpGmIRK4</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1116,15 +369,15 @@
       </rPr>
       <t>-&gt; TLR9diCpGmIRK4IK1</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">TLR9di+CpG-&gt; TLR9diCpG </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ring-like domain</t>
@@ -1166,139 +419,1048 @@
     <t>part_of</t>
   </si>
   <si>
-    <t xml:space="preserve">IRF3pIRF3p translocate to nucleus   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1 and DDb of IF7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TLR9diCpGmIRK4K1p-+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="206"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>IRF7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-      </rPr>
-      <t>-&gt;TLR9diCpGmIRK4K1pIF7</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ka of IR1p and KB of IF7 part of TLR9diCpGmIRK4IK1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop in intrendo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pIF7  -&gt; TLR9diCpGmIRK4IK1pIF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sf of IRK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pIF7p -&gt; TLR9diCpGmIRK4IK1p +IF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sf of IF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>phom of IF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>phomp locate in cyto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">IF7pIF7p </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">IF7p +IF7p    -&gt;IF7pIF7p </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nlsb of IRF3pIRF3p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpGmIRK4IK1pptf6-&gt;TLR9diCpGmIRK4+IRK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tf6bp located in cyto</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Uses entities from </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>File1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AMM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpGmIRK4IK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpGmIRK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpG complex dimer + myd88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TLR9diCpGm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGm complex dimer + IRAk4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1pp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</t>
+  </si>
+  <si>
+    <t>E3l of pelp and ubb of IRK1</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>protein aminoacid phosphoriltion</t>
+  </si>
+  <si>
+    <t>GO:0006468</t>
+  </si>
+  <si>
+    <t>pcd</t>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+  </si>
+  <si>
+    <t>GO:0043241</t>
+  </si>
+  <si>
+    <t>Fhabp</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 nfKb signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>protein K63-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0070534</t>
+  </si>
+  <si>
+    <t>pK48ub</t>
+  </si>
+  <si>
+    <t>protein K48-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>ppub</t>
+  </si>
+  <si>
+    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGbp located in the endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>ddplocated in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
+  </si>
+  <si>
+    <t>kb of IKbK and ka of tak1</t>
+  </si>
+  <si>
+    <t>IKBNfkb</t>
+  </si>
+  <si>
+    <t>ob of NFKB part of IKBNfkb</t>
+  </si>
+  <si>
+    <t>csNfkb located in cyto</t>
+  </si>
+  <si>
+    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
+  </si>
+  <si>
+    <t>kb of IKB and ka of IKbKp</t>
+  </si>
+  <si>
+    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>ubb of IKBp</t>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>SO:0000307</t>
+  </si>
+  <si>
+    <t>DNA sequenze rich in CpG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toll like receptor 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001160</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9+TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGb of TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>binding domains</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK4</t>
+  </si>
+  <si>
+    <t>ddb of MyD88 and of IRK1</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>tf6bd of TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
+  </si>
+  <si>
+    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>pk63ub located in cyto</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>kinase binding</t>
+  </si>
+  <si>
+    <t>GO:0019900</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>kinase activity</t>
+  </si>
+  <si>
+    <t>GO:0016301</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>separeted from</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>PATO:0001505</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>PATO:0000648</t>
+  </si>
+  <si>
+    <t>ubb</t>
+  </si>
+  <si>
+    <t>ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>gene product</t>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1328,11 +1490,6 @@
       <color indexed="17"/>
       <name val="Verdana"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="206"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1348,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1371,19 +1528,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1392,12 +1575,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,8 +1923,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD19"/>
+    <sheetView view="pageLayout" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1743,28 +1936,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>126</v>
       </c>
       <c r="C2" s="7">
         <v>38633</v>
@@ -1773,7 +1966,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1787,10 +1980,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>109</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1839,19 +2032,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>422</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>423</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>424</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1865,16 +2058,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1897,189 +2090,189 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>88</v>
+        <v>427</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>429</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="1" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="52">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>99</v>
+        <v>250</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>103</v>
+        <v>254</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>1</v>
+        <v>340</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2</v>
+        <v>341</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="26">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>348</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2087,13 +2280,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>349</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2101,209 +2294,209 @@
     </row>
     <row r="28" spans="1:6" ht="26">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>269</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>273</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>123</v>
+        <v>274</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>124</v>
+        <v>275</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>363</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>364</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>365</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>367</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>369</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>31</v>
+        <v>370</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>371</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>291</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>141</v>
+        <v>292</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>379</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>381</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>383</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>46</v>
+        <v>385</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>386</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2311,221 +2504,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>354</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>16</v>
+        <v>355</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>243</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>23</v>
+        <v>362</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>352</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>382</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>383</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>384</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="78">
       <c r="A49" s="1" t="s">
-        <v>385</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>386</v>
+        <v>53</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>387</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>270</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>89</v>
+        <v>428</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>374</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>33</v>
+        <v>372</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2533,13 +2726,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>22</v>
+        <v>361</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2547,13 +2740,13 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>38</v>
+        <v>377</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2561,237 +2754,237 @@
     </row>
     <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>287</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>48</v>
+        <v>387</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>49</v>
+        <v>388</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>51</v>
+        <v>390</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>391</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>56</v>
+        <v>395</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
+        <v>398</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>63</v>
+        <v>402</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>64</v>
+        <v>403</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>69</v>
+        <v>408</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>409</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>71</v>
+        <v>410</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>72</v>
+        <v>411</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>74</v>
+        <v>413</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>415</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2799,605 +2992,605 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>263</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>265</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>266</v>
+        <v>121</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>268</v>
+        <v>123</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>269</v>
+        <v>124</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>404</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>105</v>
+        <v>256</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>257</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>280</v>
+        <v>133</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>281</v>
+        <v>134</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>125</v>
+        <v>276</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>126</v>
+        <v>277</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>127</v>
+        <v>278</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>129</v>
+        <v>280</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>130</v>
+        <v>281</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>132</v>
+        <v>283</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>133</v>
+        <v>284</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>292</v>
+        <v>145</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>143</v>
+        <v>294</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>262</v>
+        <v>117</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>144</v>
+        <v>295</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>145</v>
+        <v>296</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>147</v>
+        <v>298</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>148</v>
+        <v>299</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>155</v>
+        <v>306</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>156</v>
+        <v>307</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>157</v>
+        <v>308</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>158</v>
+        <v>309</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>160</v>
+        <v>311</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>161</v>
+        <v>312</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>159</v>
+        <v>310</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>163</v>
+        <v>314</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>165</v>
+        <v>316</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>166</v>
+        <v>317</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>167</v>
+        <v>318</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>319</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>169</v>
+        <v>320</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>170</v>
+        <v>321</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>322</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>172</v>
+        <v>323</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>176</v>
+        <v>327</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>177</v>
+        <v>328</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>178</v>
+        <v>329</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>259</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>330</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>173</v>
+        <v>324</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>325</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>175</v>
+        <v>326</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>180</v>
+        <v>331</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>183</v>
+        <v>334</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>60</v>
+        <v>399</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3405,32 +3598,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>356</v>
+        <v>97</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3453,33 +3646,33 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>358</v>
+        <v>99</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>87</v>
+        <v>426</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3495,13 +3688,13 @@
     </row>
     <row r="117" spans="1:6" ht="65">
       <c r="A117" s="1" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>283</v>
+        <v>136</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3509,45 +3702,45 @@
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3555,13 +3748,13 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3569,13 +3762,13 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3583,13 +3776,13 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>374</v>
+        <v>106</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>366</v>
+        <v>101</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3597,29 +3790,29 @@
     </row>
     <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>375</v>
+        <v>107</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3627,61 +3820,61 @@
     </row>
     <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3689,29 +3882,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>305</v>
+        <v>157</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3719,13 +3912,13 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3733,13 +3926,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3747,13 +3940,13 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>313</v>
+        <v>165</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3761,13 +3954,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3775,13 +3968,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3789,13 +3982,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3803,13 +3996,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -3817,13 +4010,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>21</v>
+        <v>360</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -3855,10 +4048,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3875,10 +4068,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3888,21 +4081,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>330</v>
+        <v>71</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>55</v>
+        <v>394</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3911,10 +4104,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3924,13 +4117,13 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3957,7 +4150,8 @@
       <c r="E152" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3971,10 +4165,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3982,146 +4176,464 @@
     <col min="1" max="3" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26">
+    <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
+        <v>420</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="26">
+        <v>421</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>376</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26">
-      <c r="A17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="39">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="26">
+      <c r="A8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="52">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="26">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="39">
+      <c r="A11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="52">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="91">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="39">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" ht="52">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="39">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="52">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="39">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="52">
+      <c r="A20" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="26">
-      <c r="A40" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="78">
-      <c r="A41" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="78">
-      <c r="A42" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="78">
-      <c r="A43" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="46" customHeight="1">
-      <c r="A44" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="39">
-      <c r="A45" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>373</v>
-      </c>
-    </row>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="65">
+      <c r="A21" s="1"/>
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="26">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="26">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="91">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="104">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="104">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="65">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="46" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="39">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="41" ht="29"/>
+    <row r="42" ht="78"/>
+    <row r="43" ht="78"/>
+    <row r="45" ht="26"/>
+    <row r="46" ht="39"/>
+    <row r="47" ht="26"/>
+    <row r="48" ht="39"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -20,27 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="430">
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6+IRF7-&gt;TLR9diCpGmIRK4IK1pptf6IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p+IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="433">
   <si>
     <t>TLR9diCpGmIRK4IK1pptf6+IRF7</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -234,27 +214,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TLR9diCpGmIRK4IRK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6</t>
-  </si>
-  <si>
-    <t>File TLR901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spreadsheet id TLR02</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t xml:space="preserve">anna amria </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 mapk signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreadsheet id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR902</t>
   </si>
   <si>
     <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
@@ -496,6 +468,411 @@
     <t>pcd</t>
   </si>
   <si>
+    <t>TLR9diCpGmIRK4IK1pptf6+IRF7-&gt;TLR9diCpGmIRK4IK1pptf6IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe-&gt;TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p+IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein K63-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0070534</t>
+  </si>
+  <si>
+    <t>pK48ub</t>
+  </si>
+  <si>
+    <t>protein K48-linked ubiquitination</t>
+  </si>
+  <si>
+    <t>ppub</t>
+  </si>
+  <si>
+    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGbp located in the endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>ddplocated in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
+  </si>
+  <si>
+    <t>kb of IKbK and ka of tak1</t>
+  </si>
+  <si>
+    <t>IKBNfkb</t>
+  </si>
+  <si>
+    <t>ob of NFKB part of IKBNfkb</t>
+  </si>
+  <si>
+    <t>csNfkb located in cyto</t>
+  </si>
+  <si>
+    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
+  </si>
+  <si>
+    <t>kb of IKB and ka of IKbKp</t>
+  </si>
+  <si>
+    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>ubb of IKBp</t>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>SO:0000307</t>
+  </si>
+  <si>
+    <t>DNA sequenze rich in CpG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Toll like receptor 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001160</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9+TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGb of TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>binding domains</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK4</t>
+  </si>
+  <si>
+    <t>ddb of MyD88 and of IRK1</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>tf6bd of TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
+  </si>
+  <si>
+    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>pk63ub located in cyto</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
     <t>protein complex disassembly</t>
   </si>
   <si>
@@ -523,172 +900,259 @@
     <t>pk63ub</t>
   </si>
   <si>
-    <t>protein K63-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0070534</t>
-  </si>
-  <si>
-    <t>pK48ub</t>
-  </si>
-  <si>
-    <t>protein K48-linked ubiquitination</t>
-  </si>
-  <si>
-    <t>ppub</t>
-  </si>
-  <si>
-    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGbp located in the endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>ddplocated in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
-  </si>
-  <si>
-    <t>kb of IKbK and ka of tak1</t>
-  </si>
-  <si>
-    <t>IKBNfkb</t>
-  </si>
-  <si>
-    <t>ob of NFKB part of IKBNfkb</t>
-  </si>
-  <si>
-    <t>csNfkb located in cyto</t>
-  </si>
-  <si>
-    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
-  </si>
-  <si>
-    <t>kb of IKB and ka of IKbKp</t>
-  </si>
-  <si>
-    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>ubb of IKBp</t>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>kinase binding</t>
+  </si>
+  <si>
+    <t>GO:0019900</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>kinase activity</t>
+  </si>
+  <si>
+    <t>GO:0016301</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>separeted from</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>PATO:0001505</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>PATO:0000648</t>
+  </si>
+  <si>
+    <t>ubb</t>
+  </si>
+  <si>
+    <t>ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
   </si>
   <si>
     <t>tf and RPIITFAEB and ssDb of nfkb</t>
@@ -721,202 +1185,238 @@
     <t>IRK1pptf6pel +TIFA</t>
   </si>
   <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>SO:0000307</t>
-  </si>
-  <si>
-    <t>DNA sequenze rich in CpG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001160</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9+TLR9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>gene product</t>
   </si>
   <si>
     <t>PRO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGb of TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>binding domains</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK4</t>
-  </si>
-  <si>
-    <t>ddb of MyD88 and of IRK1</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>tf6bd of TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
-  </si>
-  <si>
-    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>pk63ub located in cyto</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>IRK4</t>
   </si>
   <si>
     <t>traf domain binding process</t>
@@ -950,495 +1450,6 @@
   </si>
   <si>
     <t>K48</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>kinase binding</t>
-  </si>
-  <si>
-    <t>GO:0019900</t>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>kinase activity</t>
-  </si>
-  <si>
-    <t>GO:0016301</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>separeted from</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>PATO:0001505</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>PATO:0000648</t>
-  </si>
-  <si>
-    <t>ubb</t>
-  </si>
-  <si>
-    <t>ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
-  </si>
-  <si>
-    <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
-  </si>
-  <si>
-    <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
-  </si>
-  <si>
-    <t>gene product</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1517,19 +1528,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1558,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1584,13 +1582,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,8 +1922,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1936,28 +1935,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="C2" s="7">
         <v>38633</v>
@@ -1966,7 +1965,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1980,10 +1979,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2032,19 +2031,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2058,16 +2057,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2090,189 +2089,189 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="52">
       <c r="A19" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="26">
       <c r="A25" s="1" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2280,13 +2279,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>266</v>
+        <v>432</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2294,209 +2293,209 @@
     </row>
     <row r="28" spans="1:6" ht="26">
       <c r="A28" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2504,221 +2503,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="78">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>188</v>
+        <v>339</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>189</v>
+        <v>340</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>341</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>191</v>
+        <v>342</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2726,13 +2725,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2740,13 +2739,13 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2754,237 +2753,237 @@
     </row>
     <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2992,605 +2991,605 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>257</v>
+        <v>423</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>258</v>
+        <v>424</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>262</v>
+        <v>428</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>263</v>
+        <v>429</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>264</v>
+        <v>430</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>259</v>
+        <v>425</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3598,32 +3597,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3646,33 +3645,33 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3688,13 +3687,13 @@
     </row>
     <row r="117" spans="1:6" ht="65">
       <c r="A117" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3702,45 +3701,45 @@
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3748,13 +3747,13 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3762,13 +3761,13 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3776,13 +3775,13 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3790,29 +3789,29 @@
     </row>
     <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3820,61 +3819,61 @@
     </row>
     <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3882,29 +3881,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3912,13 +3911,13 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3926,13 +3925,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3940,13 +3939,13 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3954,13 +3953,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3968,13 +3967,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3982,13 +3981,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3996,13 +3995,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4010,13 +4009,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>183</v>
+        <v>334</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>184</v>
+        <v>335</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4048,10 +4047,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>185</v>
+        <v>336</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4068,10 +4067,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4081,21 +4080,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4104,10 +4103,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4117,13 +4116,13 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4150,7 +4149,6 @@
       <c r="E152" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4165,49 +4163,60 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="4"/>
+    <col min="1" max="1" width="10.7109375" style="4"/>
+    <col min="2" max="2" width="11.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:6" ht="26">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="12">
+        <v>38654</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="11"/>
@@ -4217,17 +4226,17 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="39">
+    <row r="5" spans="1:6" ht="26">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="11"/>
@@ -4236,19 +4245,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -4262,210 +4271,210 @@
     </row>
     <row r="8" spans="1:6" ht="26">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="52">
+    <row r="9" spans="1:6" ht="39">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="26">
       <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="39">
       <c r="A11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="52">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="91">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="39">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="52">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="39">
       <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="39">
       <c r="A17" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="52">
+    <row r="18" spans="1:6" ht="39">
       <c r="A18" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="39">
       <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="52">
       <c r="A20" s="1" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -4473,10 +4482,10 @@
     <row r="21" spans="1:6" ht="65">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -4485,13 +4494,13 @@
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -4522,33 +4531,33 @@
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="78">
       <c r="A27" s="8" t="s">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -4556,13 +4565,13 @@
     </row>
     <row r="28" spans="1:6" ht="104">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -4570,13 +4579,13 @@
     </row>
     <row r="29" spans="1:6" ht="104">
       <c r="A29" s="1" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4584,13 +4593,13 @@
     </row>
     <row r="30" spans="1:6" ht="65">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4598,13 +4607,13 @@
     </row>
     <row r="31" spans="1:6" ht="46" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -4612,27 +4621,19 @@
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="41" ht="29"/>
-    <row r="42" ht="78"/>
-    <row r="43" ht="78"/>
-    <row r="45" ht="26"/>
-    <row r="46" ht="39"/>
-    <row r="47" ht="26"/>
-    <row r="48" ht="39"/>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="-80" windowWidth="21600" windowHeight="15320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1940" yWindow="-40" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TLR901" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,540 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="433">
   <si>
-    <t>TLR9diCpGmIRK4IK1pptf6+IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
+  </si>
+  <si>
+    <t>GO:?</t>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
+  </si>
+  <si>
+    <t>gene product</t>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>kinase binding</t>
+  </si>
+  <si>
+    <t>GO:0019900</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>kinase activity</t>
+  </si>
+  <si>
+    <t>GO:0016301</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>separeted from</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>PATO:0001505</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>PATO:0000648</t>
+  </si>
+  <si>
+    <t>ubb</t>
+  </si>
+  <si>
+    <t>ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>Toll like receptor 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001160</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9+TLR9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -38,147 +563,181 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>post transcriptional modifiction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp</t>
-  </si>
-  <si>
-    <t>TFDBp located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in  endo cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp</t>
-  </si>
-  <si>
-    <t>nlsb of IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein homodimerization process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nuclear localization sequence binding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006468 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043241 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>PRO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGb of TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>binding domains</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK4</t>
+  </si>
+  <si>
+    <t>ddb of MyD88 and of IRK1</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>tf6bd of TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
+  </si>
+  <si>
+    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>pk63ub located in cyto</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
   </si>
   <si>
     <t>protein complex disassembly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-  </si>
-  <si>
-    <t>pcompxda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of irfp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_part</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1-Tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1+tank+IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdsb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7 phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">post transcriptional modification </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
+  </si>
+  <si>
+    <t>GO:0043241</t>
+  </si>
+  <si>
+    <t>Fhabp</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 nfKb signaling</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -186,57 +745,229 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>gene product</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000002049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGm complex dimer + IRAk4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">anna amria </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 mapk signaling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Spreadsheet id </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR902</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFBD of tank </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGbp located in the endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>ddplocated in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
+  </si>
+  <si>
+    <t>kb of IKbK and ka of tak1</t>
+  </si>
+  <si>
+    <t>IKBNfkb</t>
+  </si>
+  <si>
+    <t>ob of NFKB part of IKBNfkb</t>
+  </si>
+  <si>
+    <t>csNfkb located in cyto</t>
+  </si>
+  <si>
+    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
+  </si>
+  <si>
+    <t>kb of IKB and ka of IKbKp</t>
+  </si>
+  <si>
+    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>ubb of IKBp</t>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>SO:0000307</t>
+  </si>
+  <si>
+    <t>DNA sequenze rich in CpG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9di</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -503,208 +1234,15 @@
     <t>ppub</t>
   </si>
   <si>
-    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGbp located in the endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>ddplocated in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
-  </si>
-  <si>
-    <t>kb of IKbK and ka of tak1</t>
-  </si>
-  <si>
-    <t>IKBNfkb</t>
-  </si>
-  <si>
-    <t>ob of NFKB part of IKBNfkb</t>
-  </si>
-  <si>
-    <t>csNfkb located in cyto</t>
-  </si>
-  <si>
-    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
-  </si>
-  <si>
-    <t>kb of IKB and ka of IKbKp</t>
-  </si>
-  <si>
-    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>ubb of IKBp</t>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6</t>
-  </si>
-  <si>
-    <t>File TLR901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>SO:0000307</t>
-  </si>
-  <si>
-    <t>DNA sequenze rich in CpG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Toll like receptor 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001160</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9+TLR9</t>
+    <t>TLR9diCpGmIRK4IK1pptf6+IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe with IRF7 phosphorilated</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -712,181 +1250,147 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGb of TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>binding domains</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK4</t>
-  </si>
-  <si>
-    <t>ddb of MyD88 and of IRK1</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>tf6bd of TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
-  </si>
-  <si>
-    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>pk63ub located in cyto</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
+    <t>post transcriptional modifiction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp</t>
+  </si>
+  <si>
+    <t>TFDBp located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in  endo cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp</t>
+  </si>
+  <si>
+    <t>nlsb of IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein homodimerization process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear localization sequence binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043241 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>protein complex disassembly</t>
-  </si>
-  <si>
-    <t>GO:0043241</t>
-  </si>
-  <si>
-    <t>Fhabp</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 nfKb signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+  </si>
+  <si>
+    <t>pcompxda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of irfp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdsb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">post transcriptional modification </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -894,562 +1398,58 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>kinase binding</t>
-  </si>
-  <si>
-    <t>GO:0019900</t>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>kinase activity</t>
-  </si>
-  <si>
-    <t>GO:0016301</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>separeted from</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>PATO:0001505</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>PATO:0000648</t>
-  </si>
-  <si>
-    <t>ubb</t>
-  </si>
-  <si>
-    <t>ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
-  </si>
-  <si>
-    <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
-  </si>
-  <si>
-    <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
+    <t>IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gene product</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000002049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGm complex dimer + IRAk4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">anna amria </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 mapk signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreadsheet id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR902</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFBD of tank </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1922,7 +1922,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1935,28 +1935,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>413</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C2" s="7">
         <v>38633</v>
@@ -1965,7 +1965,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1979,10 +1979,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>354</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2031,19 +2031,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>415</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>416</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>417</v>
+        <v>67</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>322</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>305</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>323</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>180</v>
+        <v>304</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2089,189 +2089,189 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>306</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>419</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>307</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>421</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="26">
       <c r="A18" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" ht="52">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" ht="78">
       <c r="A20" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26">
       <c r="A21" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>148</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>325</v>
+        <v>150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>327</v>
+        <v>152</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="26">
       <c r="A25" s="1" t="s">
-        <v>329</v>
+        <v>154</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>330</v>
+        <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>333</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>431</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2279,13 +2279,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>432</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2293,209 +2293,209 @@
     </row>
     <row r="28" spans="1:6" ht="26">
       <c r="A28" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" ht="26">
       <c r="A29" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>357</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>359</v>
+        <v>9</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>268</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>272</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>273</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>274</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>371</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>372</v>
+        <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>373</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>375</v>
+        <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>376</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>377</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>169</v>
+        <v>293</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>417</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>170</v>
+        <v>294</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -2503,221 +2503,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>347</v>
+        <v>172</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>348</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>349</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>354</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>344</v>
+        <v>169</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>324</v>
+        <v>149</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>358</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>357</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>422</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>104</v>
+        <v>356</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="78">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>425</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>341</v>
+        <v>166</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>342</v>
+        <v>167</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>343</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>303</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>364</v>
+        <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>420</v>
+        <v>70</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>365</v>
+        <v>15</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>366</v>
+        <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>364</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>367</v>
+        <v>17</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>368</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>353</v>
+        <v>3</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>369</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2753,237 +2753,237 @@
     </row>
     <row r="57" spans="1:6" ht="26">
       <c r="A57" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" ht="26">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>75</v>
+        <v>327</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" ht="26">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>381</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>382</v>
+        <v>32</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>383</v>
+        <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>384</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>387</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>388</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>389</v>
+        <v>39</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>390</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>392</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>393</v>
+        <v>43</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>394</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>397</v>
+        <v>47</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>398</v>
+        <v>48</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>399</v>
+        <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>402</v>
+        <v>52</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>403</v>
+        <v>53</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>404</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>405</v>
+        <v>55</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>406</v>
+        <v>56</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>407</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>408</v>
+        <v>58</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2991,605 +2991,605 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>114</v>
+        <v>366</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" ht="39">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>423</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>424</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>428</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" ht="52">
       <c r="A80" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>120</v>
+        <v>372</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>121</v>
+        <v>373</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>122</v>
+        <v>374</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>123</v>
+        <v>375</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>124</v>
+        <v>376</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>258</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>264</v>
+        <v>89</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>266</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>133</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>139</v>
+        <v>263</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>276</v>
+        <v>101</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>277</v>
+        <v>102</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>286</v>
+        <v>111</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>287</v>
+        <v>112</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>288</v>
+        <v>113</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>289</v>
+        <v>114</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>293</v>
+        <v>118</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>119</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>297</v>
+        <v>122</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>298</v>
+        <v>123</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>300</v>
+        <v>125</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>304</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>305</v>
+        <v>130</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>309</v>
+        <v>134</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>310</v>
+        <v>135</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>311</v>
+        <v>136</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>312</v>
+        <v>137</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>313</v>
+        <v>138</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>314</v>
+        <v>139</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>315</v>
+        <v>140</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>316</v>
+        <v>141</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>317</v>
+        <v>142</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>318</v>
+        <v>143</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>319</v>
+        <v>144</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>162</v>
+        <v>286</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>163</v>
+        <v>287</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>165</v>
+        <v>289</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>166</v>
+        <v>290</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>81</v>
+        <v>333</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>82</v>
+        <v>334</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>83</v>
+        <v>335</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>84</v>
+        <v>336</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3597,32 +3597,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>85</v>
+        <v>337</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>87</v>
+        <v>339</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>88</v>
+        <v>340</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3645,33 +3645,33 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>417</v>
+        <v>67</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3687,13 +3687,13 @@
     </row>
     <row r="117" spans="1:6" ht="65">
       <c r="A117" s="1" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>72</v>
+        <v>324</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3701,45 +3701,45 @@
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>76</v>
+        <v>328</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>140</v>
+        <v>264</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>141</v>
+        <v>265</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3747,13 +3747,13 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>142</v>
+        <v>266</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>174</v>
+        <v>298</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -3775,13 +3775,13 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>99</v>
+        <v>351</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -3789,29 +3789,29 @@
     </row>
     <row r="124" spans="1:6" ht="39">
       <c r="A124" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="52">
       <c r="A125" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3819,61 +3819,61 @@
     </row>
     <row r="126" spans="1:6" ht="65">
       <c r="A126" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="65">
       <c r="A127" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="52">
       <c r="A128" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>108</v>
+        <v>360</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>109</v>
+        <v>361</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -3881,29 +3881,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>146</v>
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>148</v>
+        <v>272</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>149</v>
+        <v>273</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3911,13 +3911,13 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>150</v>
+        <v>274</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -3925,13 +3925,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>152</v>
+        <v>276</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -3953,13 +3953,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3967,13 +3967,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>56</v>
+        <v>308</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>57</v>
+        <v>309</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3981,13 +3981,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>59</v>
+        <v>311</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>61</v>
+        <v>313</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3995,13 +3995,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>171</v>
+        <v>295</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4009,13 +4009,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>334</v>
+        <v>159</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>335</v>
+        <v>160</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>337</v>
+        <v>162</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>338</v>
+        <v>163</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4080,21 +4080,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>64</v>
+        <v>316</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>67</v>
+        <v>319</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4116,13 +4116,13 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>69</v>
+        <v>321</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>65</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4165,7 +4165,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4179,44 +4179,44 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>411</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>412</v>
+        <v>62</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>413</v>
+        <v>63</v>
       </c>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>429</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="12">
         <v>38654</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>49</v>
+        <v>426</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="11"/>
@@ -4226,7 +4226,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="11"/>
@@ -4236,7 +4236,7 @@
     <row r="5" spans="1:6" ht="26">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>299</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="11"/>
@@ -4245,19 +4245,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>414</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>415</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>416</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>417</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -4271,210 +4271,210 @@
     </row>
     <row r="8" spans="1:6" ht="26">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>420</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>421</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="39">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>414</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>415</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="26">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>370</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>371</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="39">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>430</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="52">
       <c r="A12" s="1" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>3</v>
+        <v>380</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="91">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>400</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>379</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>417</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="39">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>404</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>402</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>403</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="52">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>283</v>
+        <v>108</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="39">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="39">
       <c r="A17" s="1" t="s">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>422</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>110</v>
+        <v>362</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>385</v>
+        <v>35</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="39">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>363</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>394</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>395</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="39">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>386</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>390</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>391</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="52">
       <c r="A20" s="1" t="s">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>392</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>393</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -4482,10 +4482,10 @@
     <row r="21" spans="1:6" ht="65">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>409</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>33</v>
+        <v>410</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -4494,13 +4494,13 @@
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>411</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>412</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -4531,33 +4531,33 @@
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>343</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>417</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>418</v>
+        <v>68</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="78">
       <c r="A27" s="8" t="s">
-        <v>115</v>
+        <v>367</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>382</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -4565,13 +4565,13 @@
     </row>
     <row r="28" spans="1:6" ht="104">
       <c r="A28" s="1" t="s">
-        <v>55</v>
+        <v>432</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>384</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -4579,13 +4579,13 @@
     </row>
     <row r="29" spans="1:6" ht="104">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>368</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>399</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>385</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4593,13 +4593,13 @@
     </row>
     <row r="30" spans="1:6" ht="65">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>405</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4607,13 +4607,13 @@
     </row>
     <row r="31" spans="1:6" ht="46" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>347</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -4621,13 +4621,13 @@
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>408</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>

--- a/src/ontology/immunology/TLR9.xlsx
+++ b/src/ontology/immunology/TLR9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="-40" windowWidth="21600" windowHeight="15320" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TLR901" sheetId="1" r:id="rId1"/>
@@ -22,965 +22,210 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="433">
   <si>
-    <t>PRO:000001757</t>
-  </si>
-  <si>
-    <t>p65</t>
-  </si>
-  <si>
-    <t>nfkb</t>
-  </si>
-  <si>
-    <t>complex</t>
-  </si>
-  <si>
-    <t>IKBpK48ub</t>
-  </si>
-  <si>
-    <t>Ubc13</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
-  </si>
-  <si>
-    <t>Uev1A</t>
-  </si>
-  <si>
-    <t>Ubiquitin-conjugating enzyme E2 N</t>
-  </si>
-  <si>
-    <t>TIFA</t>
-  </si>
-  <si>
-    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
-  </si>
-  <si>
-    <t>tak1</t>
-  </si>
-  <si>
-    <t>TNF associated kinase 1</t>
-  </si>
-  <si>
-    <t>tab1</t>
-  </si>
-  <si>
-    <t>post transcriptional modification on tf6 part of the complex</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IKBpNfkb</t>
-  </si>
-  <si>
-    <t>IKB phosphorilated+NFKB</t>
-  </si>
-  <si>
-    <t>PRO:000001772</t>
-  </si>
-  <si>
-    <t>Nemo</t>
-  </si>
-  <si>
-    <t>NEMO</t>
-  </si>
-  <si>
-    <t>PRO:000001752</t>
-  </si>
-  <si>
-    <t>IKKa</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
-  </si>
-  <si>
-    <t>PRO:000001775</t>
-  </si>
-  <si>
-    <t>IKKb</t>
-  </si>
-  <si>
-    <t>GO:0005938</t>
-  </si>
-  <si>
-    <t>IkbK</t>
-  </si>
-  <si>
-    <t>IkappaB kinase complex</t>
-  </si>
-  <si>
-    <t>GO:0008385</t>
-  </si>
-  <si>
-    <t>Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>UBC13-Uev1A complex</t>
+    <t>protein complex</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post transcriptional modifiction</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDbp</t>
+  </si>
+  <si>
+    <t>TFDBp located in endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in  endo cyto</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>phomp</t>
+  </si>
+  <si>
+    <t>nlsb of IRF7pIRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein homodimerization process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuclear localization sequence binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecular function</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0006468 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dd domain binding process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GO?</t>
-  </si>
-  <si>
-    <t>IKBNFkb</t>
-  </si>
-  <si>
-    <t>I-kappaB/NF-kappaB complex</t>
-  </si>
-  <si>
-    <t>GO:0033256</t>
-  </si>
-  <si>
-    <t>ddb</t>
-  </si>
-  <si>
-    <t>death domain binding</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>molecular function</t>
-  </si>
-  <si>
-    <t>GO:0070513</t>
-  </si>
-  <si>
-    <t>fhab</t>
-  </si>
-  <si>
-    <t>Fha domain binding</t>
-  </si>
-  <si>
-    <t>GO:?</t>
-  </si>
-  <si>
-    <t>trafdb</t>
-  </si>
-  <si>
-    <t>traf domain binding</t>
-  </si>
-  <si>
-    <t>RPIITFAEB</t>
-  </si>
-  <si>
-    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
-  </si>
-  <si>
-    <t>GO:0003705</t>
-  </si>
-  <si>
-    <t>ssDb</t>
-  </si>
-  <si>
-    <t>sequence-specific DNA binding</t>
-  </si>
-  <si>
-    <t>GO:0043565</t>
-  </si>
-  <si>
-    <t>tf</t>
-  </si>
-  <si>
-    <t>trancription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0003700</t>
-  </si>
-  <si>
-    <t>ddp</t>
-  </si>
-  <si>
-    <t>dd domain binding process</t>
-  </si>
-  <si>
-    <t>Spreadsheet id</t>
-  </si>
-  <si>
-    <t>About</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Last edited</t>
-  </si>
-  <si>
-    <t>Editors</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>Entities</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>super(s)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>process</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043241 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pcompxda</t>
+  </si>
+  <si>
+    <t>pcompxda</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>conformational change of irfp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_part</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdsb</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7 phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">post transcriptional modification </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF-7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gene product</t>
-  </si>
-  <si>
-    <t>PRO?</t>
-  </si>
-  <si>
-    <t>IRK4</t>
-  </si>
-  <si>
-    <t>traf domain binding process</t>
-  </si>
-  <si>
-    <t>ankdb</t>
-  </si>
-  <si>
-    <t>ANK domain Binding process</t>
-  </si>
-  <si>
-    <t>rhdb</t>
-  </si>
-  <si>
-    <t>RHD domain binding process</t>
-  </si>
-  <si>
-    <t>pub</t>
-  </si>
-  <si>
-    <t>protein ubiquituination</t>
-  </si>
-  <si>
-    <t>GO:0016567</t>
-  </si>
-  <si>
-    <t>RLbp</t>
-  </si>
-  <si>
-    <t>L-lysine at position 63 of a protein</t>
-  </si>
-  <si>
-    <t>K48</t>
-  </si>
-  <si>
-    <t>protein polyubiquitination</t>
-  </si>
-  <si>
-    <t>GO:0000209</t>
-  </si>
-  <si>
-    <t>zfbd</t>
-  </si>
-  <si>
-    <t>zinc finger binding domain</t>
-  </si>
-  <si>
-    <t>pubbp</t>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
-  </si>
-  <si>
-    <t>ubdpcp</t>
-  </si>
-  <si>
-    <t>ubiquitin-dependent protein catabolic process</t>
-  </si>
-  <si>
-    <t>GO:0006511</t>
-  </si>
-  <si>
-    <t>prNfkbtf</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 1</t>
-  </si>
-  <si>
-    <t>PRO:000001770</t>
-  </si>
-  <si>
-    <t>tab2</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 2</t>
-  </si>
-  <si>
-    <t>PRO:000001771</t>
-  </si>
-  <si>
-    <t>tab3</t>
-  </si>
-  <si>
-    <t>TAk1 associated binding protein 3</t>
-  </si>
-  <si>
-    <t>TRPIIP</t>
-  </si>
-  <si>
-    <t>transcription from RNA polymerase II promoter</t>
-  </si>
-  <si>
-    <t>GO:0006366</t>
-  </si>
-  <si>
-    <t>udpla</t>
-  </si>
-  <si>
-    <t>ubiquitin-protein ligase activity</t>
-  </si>
-  <si>
-    <t>GO:0004842</t>
-  </si>
-  <si>
-    <t>pdsb</t>
-  </si>
-  <si>
-    <t>protein domain-specific binding</t>
-  </si>
-  <si>
-    <t>GO:0019904</t>
-  </si>
-  <si>
-    <t>Kb</t>
-  </si>
-  <si>
-    <t>kinase binding</t>
-  </si>
-  <si>
-    <t>GO:0019900</t>
-  </si>
-  <si>
-    <t>Ka</t>
-  </si>
-  <si>
-    <t>kinase activity</t>
-  </si>
-  <si>
-    <t>GO:0016301</t>
-  </si>
-  <si>
-    <t>sf</t>
-  </si>
-  <si>
-    <t>separeted from</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>PATO:0001505</t>
-  </si>
-  <si>
-    <t>ob</t>
-  </si>
-  <si>
-    <t>obstructed</t>
-  </si>
-  <si>
-    <t>PATO:0000648</t>
-  </si>
-  <si>
-    <t>ubb</t>
-  </si>
-  <si>
-    <t>ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0043130</t>
-  </si>
-  <si>
-    <t>pubb</t>
-  </si>
-  <si>
-    <t>poly ubiquitin binding</t>
-  </si>
-  <si>
-    <t>GO:0031593</t>
-  </si>
-  <si>
-    <t>E3l</t>
-  </si>
-  <si>
-    <t>E3 ligase activity</t>
-  </si>
-  <si>
-    <t>no in GO</t>
-  </si>
-  <si>
-    <t>nlsb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nuclear localization sequence binding</t>
-  </si>
-  <si>
-    <t>GO:0008139</t>
-  </si>
-  <si>
-    <t>ankb</t>
-  </si>
-  <si>
-    <t>ankyrin binding</t>
-  </si>
-  <si>
-    <t>GO:0030506</t>
-  </si>
-  <si>
-    <t>Rel homology domain binding</t>
-  </si>
-  <si>
-    <t>RLb</t>
-  </si>
-  <si>
-    <t>ring like domain binding</t>
-  </si>
-  <si>
-    <t>protsb</t>
-  </si>
-  <si>
-    <t>proteasome binding</t>
-  </si>
-  <si>
-    <t>GO:0070628 :</t>
-  </si>
-  <si>
-    <t>DD</t>
-  </si>
-  <si>
-    <t>death domain</t>
-  </si>
-  <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>PRO:000002382</t>
-  </si>
-  <si>
-    <t>TF6K63ub</t>
-  </si>
-  <si>
-    <t>TRAF6 ubiquitineted</t>
-  </si>
-  <si>
-    <t>post transcriptional modification</t>
-  </si>
-  <si>
-    <t>pel</t>
-  </si>
-  <si>
-    <t>Protein pellino homolog 1</t>
-  </si>
-  <si>
-    <t>pelp</t>
-  </si>
-  <si>
-    <t>PELLINO phosphorilated</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L-lysine</t>
-  </si>
-  <si>
-    <t>aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00021 or CHEBI:29967</t>
-  </si>
-  <si>
-    <t>K63</t>
-  </si>
-  <si>
-    <t>tf and RPIITFAEB and ssDb of nfkb</t>
-  </si>
-  <si>
-    <t>TRPIIP located in nuc</t>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-  </si>
-  <si>
-    <t>has_part</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>complex modified</t>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
-  </si>
-  <si>
-    <t>p38</t>
-  </si>
-  <si>
-    <t>mitogen-activated protein kinase 1</t>
-  </si>
-  <si>
-    <t>PRO:000000103</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
-  </si>
-  <si>
-    <t>Toll like receptor 9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000001160</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9+TLR9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGb of TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post transcriptional modification on IKB part of the complex</t>
-  </si>
-  <si>
-    <t>nuc</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>cellular component</t>
-  </si>
-  <si>
-    <t>GO:0005634</t>
-  </si>
-  <si>
-    <t>cyto</t>
-  </si>
-  <si>
-    <t>cytoplasm</t>
-  </si>
-  <si>
-    <t>GO:0005737</t>
-  </si>
-  <si>
-    <t>pcyto</t>
-  </si>
-  <si>
-    <t>peripheral cytoplasm</t>
-  </si>
-  <si>
-    <t>binding domains</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK4</t>
-  </si>
-  <si>
-    <t>ddb of MyD88 and of IRK1</t>
-  </si>
-  <si>
-    <t>DD of Myd88 and DD of IRK1</t>
-  </si>
-  <si>
-    <t>kb of IRK1 and Ka of KD in IRK4</t>
-  </si>
-  <si>
-    <t>kb of IRK1p and ka of KD in IRK1p</t>
-  </si>
-  <si>
-    <t>tf6bd of IRK1pp</t>
-  </si>
-  <si>
-    <t>tf6bp located in pcyto</t>
-  </si>
-  <si>
-    <t>pcd located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
-  </si>
-  <si>
-    <t>fhab of pel</t>
-  </si>
-  <si>
-    <t>Fhabp located in cyto</t>
-  </si>
-  <si>
-    <t>FHA of pel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
-  </si>
-  <si>
-    <t>tf6bd of TIFA</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
-  </si>
-  <si>
-    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
-  </si>
-  <si>
-    <t>pk63ub located in cyto</t>
-  </si>
-  <si>
-    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
-  </si>
-  <si>
-    <t>pubb of TF6</t>
-  </si>
-  <si>
-    <t>ppub located in cyto</t>
-  </si>
-  <si>
-    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
-  </si>
-  <si>
-    <t>kb of pel ka of IRK1</t>
-  </si>
-  <si>
-    <t>pop located in cyto</t>
-  </si>
-  <si>
-    <t>IRK1 phosporilate pel  part of a complex</t>
-  </si>
-  <si>
-    <t>IRAK4</t>
-  </si>
-  <si>
-    <t>Gene product</t>
-  </si>
-  <si>
-    <t>PRO:000001780</t>
-  </si>
-  <si>
-    <t>IRK1</t>
-  </si>
-  <si>
-    <t>IRAK1</t>
-  </si>
-  <si>
-    <t>PRO:000001782</t>
-  </si>
-  <si>
-    <t>IRK1p</t>
-  </si>
-  <si>
-    <t>IRAK1 phopshorilated at Thr387</t>
-  </si>
-  <si>
-    <t>PRO:?</t>
-  </si>
-  <si>
-    <t>IRK1pp</t>
-  </si>
-  <si>
-    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
-  </si>
-  <si>
-    <t>TF6</t>
-  </si>
-  <si>
-    <t>TRAF6</t>
-  </si>
-  <si>
-    <t>fha domain binding process</t>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-  </si>
-  <si>
-    <t>GO:0043241</t>
-  </si>
-  <si>
-    <t>Fhabp</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 nfKb signaling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ring like domain binding process</t>
-  </si>
-  <si>
-    <t>pk63ub</t>
-  </si>
-  <si>
-    <t>L-lysine at position 48 of a protein</t>
-  </si>
-  <si>
-    <t>Thr</t>
-  </si>
-  <si>
-    <t>L-threonin</t>
-  </si>
-  <si>
-    <t>aminoacd</t>
-  </si>
-  <si>
-    <t>MOD:00026 or CHEBI:30013</t>
-  </si>
-  <si>
-    <t>Thrp</t>
-  </si>
-  <si>
-    <t>O-phospho L-threonin</t>
-  </si>
-  <si>
-    <t>modified aminoacid</t>
-  </si>
-  <si>
-    <t>MOD:00047</t>
-  </si>
-  <si>
-    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CpGbp located in the endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0005768</t>
-  </si>
-  <si>
-    <t>endosome</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>positive regulation of NF-kappaB transcription factor activity</t>
-  </si>
-  <si>
-    <t>GO:0051092</t>
-  </si>
-  <si>
-    <t>csNfkb</t>
-  </si>
-  <si>
-    <t>cytoplasmic sequestering of NF-kappaB</t>
-  </si>
-  <si>
-    <t>GO:0007253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> rcskb</t>
-  </si>
-  <si>
-    <t>release of cytoplasmatic sequested NFKb</t>
-  </si>
-  <si>
-    <t>GO:0008588</t>
-  </si>
-  <si>
-    <t>ddplocated in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in intrendo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>psdb of tf6pub</t>
-  </si>
-  <si>
-    <t>zfbd located in cyto</t>
-  </si>
-  <si>
-    <t>zinc finger of tab2 binds to tf6pub</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
-  </si>
-  <si>
-    <t>pubb of nemo part of IKbK</t>
-  </si>
-  <si>
-    <t>pubbp located in cyto</t>
-  </si>
-  <si>
-    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
-  </si>
-  <si>
-    <t>kb of IKbK and ka of tak1</t>
-  </si>
-  <si>
-    <t>IKBNfkb</t>
-  </si>
-  <si>
-    <t>ob of NFKB part of IKBNfkb</t>
-  </si>
-  <si>
-    <t>csNfkb located in cyto</t>
-  </si>
-  <si>
-    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
-  </si>
-  <si>
-    <t>kb of IKB and ka of IKbKp</t>
-  </si>
-  <si>
-    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
-  </si>
-  <si>
-    <t>ubb of IKBp</t>
-  </si>
-  <si>
-    <t>pK48ub located in cyto</t>
-  </si>
-  <si>
-    <t>PF00531</t>
-  </si>
-  <si>
-    <t>KD</t>
-  </si>
-  <si>
-    <t>kinase domain</t>
-  </si>
-  <si>
-    <t>PF0069</t>
-  </si>
-  <si>
-    <t>FHA</t>
-  </si>
-  <si>
-    <t>forkhead associated domain</t>
-  </si>
-  <si>
-    <t>PF00498</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
-  </si>
-  <si>
-    <t>PRO:000001776</t>
-  </si>
-  <si>
-    <t>IKB</t>
-  </si>
-  <si>
-    <t>Nfkb translocate to nucleus</t>
-  </si>
-  <si>
-    <t>nlsb of Nfkb</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1pp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6</t>
-  </si>
-  <si>
-    <t>File TLR901</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6dk63ubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
-  </si>
-  <si>
-    <t>SO:0000307</t>
-  </si>
-  <si>
-    <t>DNA sequenze rich in CpG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9di</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
-  </si>
-  <si>
-    <t>sf of IKBpK48ub</t>
-  </si>
-  <si>
-    <t>pcd and rcskb located in cyto</t>
-  </si>
-  <si>
-    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000002049</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGm complex dimer + IRAk4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1p</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">anna amria </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 mapk signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spreadsheet id </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR902</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFBD of tank </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>protsb of IKBpK48ub</t>
@@ -1246,210 +491,965 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>CpGbp located in the endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>endosome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>endo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>positive regulation of NF-kappaB transcription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0051092</t>
+  </si>
+  <si>
+    <t>csNfkb</t>
+  </si>
+  <si>
+    <t>cytoplasmic sequestering of NF-kappaB</t>
+  </si>
+  <si>
+    <t>GO:0007253</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rcskb</t>
+  </si>
+  <si>
+    <t>release of cytoplasmatic sequested NFKb</t>
+  </si>
+  <si>
+    <t>GO:0008588</t>
+  </si>
+  <si>
+    <t>ddplocated in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1-&gt;TLR9diCpGmIRK4IK1p   (Thr 387)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop located in intrendo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpepl+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>psdb of tf6pub</t>
+  </si>
+  <si>
+    <t>zfbd located in cyto</t>
+  </si>
+  <si>
+    <t>zinc finger of tab2 binds to tf6pub</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</t>
+  </si>
+  <si>
+    <t>pubb of nemo part of IKbK</t>
+  </si>
+  <si>
+    <t>pubbp located in cyto</t>
+  </si>
+  <si>
+    <t>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</t>
+  </si>
+  <si>
+    <t>kb of IKbK and ka of tak1</t>
+  </si>
+  <si>
+    <t>IKBNfkb</t>
+  </si>
+  <si>
+    <t>ob of NFKB part of IKBNfkb</t>
+  </si>
+  <si>
+    <t>csNfkb located in cyto</t>
+  </si>
+  <si>
+    <t>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</t>
+  </si>
+  <si>
+    <t>kb of IKB and ka of IKbKp</t>
+  </si>
+  <si>
+    <t>IKBpIKBpNFKB+ub-&gt;IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>ubb of IKBp</t>
+  </si>
+  <si>
+    <t>pK48ub located in cyto</t>
+  </si>
+  <si>
+    <t>PF00531</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>kinase domain</t>
+  </si>
+  <si>
+    <t>PF0069</t>
+  </si>
+  <si>
+    <t>FHA</t>
+  </si>
+  <si>
+    <t>forkhead associated domain</t>
+  </si>
+  <si>
+    <t>PF00498</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit beta</t>
+  </si>
+  <si>
+    <t>PRO:000001776</t>
+  </si>
+  <si>
+    <t>IKB</t>
+  </si>
+  <si>
+    <t>Nfkb translocate to nucleus</t>
+  </si>
+  <si>
+    <t>nlsb of Nfkb</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IRK1pp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pp+tf6-&gt;TLR9diCpGmIRK4IK1pptf6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1pptf6</t>
+  </si>
+  <si>
+    <t>File TLR901</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDb of Myd88 part of TLR9diCpGmIR4IK1pptf6 and DDb of IF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6dk63ubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI  where tf6 is K63 ubiquitinated</t>
+  </si>
+  <si>
+    <t>SO:0000307</t>
+  </si>
+  <si>
+    <t>DNA sequenze rich in CpG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb</t>
+  </si>
+  <si>
+    <t>sf of IKBpK48ub</t>
+  </si>
+  <si>
+    <t>pcd and rcskb located in cyto</t>
+  </si>
+  <si>
+    <t>IKBpK48ub-&gt;IKBpK48ub degraded also as participant in GO:0006511</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on IKB part of the complex</t>
+  </si>
+  <si>
+    <t>nuc</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>cellular component</t>
+  </si>
+  <si>
+    <t>GO:0005634</t>
+  </si>
+  <si>
+    <t>cyto</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>pcyto</t>
+  </si>
+  <si>
+    <t>peripheral cytoplasm</t>
+  </si>
+  <si>
+    <t>binding domains</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK4</t>
+  </si>
+  <si>
+    <t>ddb of MyD88 and of IRK1</t>
+  </si>
+  <si>
+    <t>DD of Myd88 and DD of IRK1</t>
+  </si>
+  <si>
+    <t>kb of IRK1 and Ka of KD in IRK4</t>
+  </si>
+  <si>
+    <t>kb of IRK1p and ka of KD in IRK1p</t>
+  </si>
+  <si>
+    <t>tf6bd of IRK1pp</t>
+  </si>
+  <si>
+    <t>tf6bp located in pcyto</t>
+  </si>
+  <si>
+    <t>pcd located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel-&gt; IRK1pptf6pel</t>
+  </si>
+  <si>
+    <t>fhab of pel</t>
+  </si>
+  <si>
+    <t>Fhabp located in cyto</t>
+  </si>
+  <si>
+    <t>FHA of pel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IRK1pptf6pel+TIFA-&gt;  IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>tf6bd of TIFA</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</t>
+  </si>
+  <si>
+    <t>ubb of TF6 and udpla of Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>pk63ub located in cyto</t>
+  </si>
+  <si>
+    <t>Ring domain of TF6 position:K63 and of ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TI</t>
+  </si>
+  <si>
+    <t>pubb of TF6</t>
+  </si>
+  <si>
+    <t>ppub located in cyto</t>
+  </si>
+  <si>
+    <t>position:K63 of  ubiquitin and some:K of  ubiquitin</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</t>
+  </si>
+  <si>
+    <t>kb of pel ka of IRK1</t>
+  </si>
+  <si>
+    <t>pop located in cyto</t>
+  </si>
+  <si>
+    <t>IRK1 phosporilate pel  part of a complex</t>
+  </si>
+  <si>
+    <t>IRAK4</t>
+  </si>
+  <si>
+    <t>Gene product</t>
+  </si>
+  <si>
+    <t>PRO:000001780</t>
+  </si>
+  <si>
+    <t>IRK1</t>
+  </si>
+  <si>
+    <t>IRAK1</t>
+  </si>
+  <si>
+    <t>PRO:000001782</t>
+  </si>
+  <si>
+    <t>IRK1p</t>
+  </si>
+  <si>
+    <t>IRAK1 phopshorilated at Thr387</t>
+  </si>
+  <si>
+    <t>PRO:?</t>
+  </si>
+  <si>
+    <t>IRK1pp</t>
+  </si>
+  <si>
+    <t>IRAK1 multiphosphorilated at Thr 387 and at least one other place</t>
+  </si>
+  <si>
+    <t>TF6</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>fha domain binding process</t>
+  </si>
+  <si>
+    <t>protein complex disassembly</t>
+  </si>
+  <si>
+    <t>GO:0043241</t>
+  </si>
+  <si>
+    <t>Fhabp</t>
+  </si>
+  <si>
+    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is multi phosphorilated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9 nfKb signaling</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring like domain binding process</t>
+  </si>
+  <si>
+    <t>pk63ub</t>
+  </si>
+  <si>
+    <t>L-lysine at position 48 of a protein</t>
+  </si>
+  <si>
+    <t>Thr</t>
+  </si>
+  <si>
+    <t>L-threonin</t>
+  </si>
+  <si>
+    <t>aminoacd</t>
+  </si>
+  <si>
+    <t>MOD:00026 or CHEBI:30013</t>
+  </si>
+  <si>
+    <t>Thrp</t>
+  </si>
+  <si>
+    <t>O-phospho L-threonin</t>
+  </si>
+  <si>
+    <t>modified aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00047</t>
+  </si>
+  <si>
+    <t>TLR9diCpG+ myd88 -&gt; TLR9diCpGm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> tirdb of TLR9  part of   TLR9diCpG and tirdb of myd88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddb of MyD88 in TLR9diCpGm and of IRK4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0006511</t>
+  </si>
+  <si>
+    <t>prNfkbtf</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 1</t>
+  </si>
+  <si>
+    <t>PRO:000001770</t>
+  </si>
+  <si>
+    <t>tab2</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 2</t>
+  </si>
+  <si>
+    <t>PRO:000001771</t>
+  </si>
+  <si>
+    <t>tab3</t>
+  </si>
+  <si>
+    <t>TAk1 associated binding protein 3</t>
+  </si>
+  <si>
+    <t>TRPIIP</t>
+  </si>
+  <si>
+    <t>transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>GO:0006366</t>
+  </si>
+  <si>
+    <t>udpla</t>
+  </si>
+  <si>
+    <t>ubiquitin-protein ligase activity</t>
+  </si>
+  <si>
+    <t>GO:0004842</t>
+  </si>
+  <si>
+    <t>pdsb</t>
+  </si>
+  <si>
+    <t>protein domain-specific binding</t>
+  </si>
+  <si>
+    <t>GO:0019904</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>kinase binding</t>
+  </si>
+  <si>
+    <t>GO:0019900</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>kinase activity</t>
+  </si>
+  <si>
+    <t>GO:0016301</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>separeted from</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>PATO:0001505</t>
+  </si>
+  <si>
+    <t>ob</t>
+  </si>
+  <si>
+    <t>obstructed</t>
+  </si>
+  <si>
+    <t>PATO:0000648</t>
+  </si>
+  <si>
+    <t>ubb</t>
+  </si>
+  <si>
+    <t>ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0043130</t>
+  </si>
+  <si>
+    <t>pubb</t>
+  </si>
+  <si>
+    <t>poly ubiquitin binding</t>
+  </si>
+  <si>
+    <t>GO:0031593</t>
+  </si>
+  <si>
+    <t>E3l</t>
+  </si>
+  <si>
+    <t>E3 ligase activity</t>
+  </si>
+  <si>
+    <t>no in GO</t>
+  </si>
+  <si>
+    <t>nlsb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nuclear localization sequence binding</t>
+  </si>
+  <si>
+    <t>GO:0008139</t>
+  </si>
+  <si>
+    <t>ankb</t>
+  </si>
+  <si>
+    <t>ankyrin binding</t>
+  </si>
+  <si>
+    <t>GO:0030506</t>
+  </si>
+  <si>
+    <t>Rel homology domain binding</t>
+  </si>
+  <si>
+    <t>RLb</t>
+  </si>
+  <si>
+    <t>ring like domain binding</t>
+  </si>
+  <si>
+    <t>protsb</t>
+  </si>
+  <si>
+    <t>proteasome binding</t>
+  </si>
+  <si>
+    <t>GO:0070628 :</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>death domain</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>PRO:000002382</t>
+  </si>
+  <si>
+    <t>TF6K63ub</t>
+  </si>
+  <si>
+    <t>TRAF6 ubiquitineted</t>
+  </si>
+  <si>
+    <t>post transcriptional modification</t>
+  </si>
+  <si>
+    <t>pel</t>
+  </si>
+  <si>
+    <t>Protein pellino homolog 1</t>
+  </si>
+  <si>
+    <t>pelp</t>
+  </si>
+  <si>
+    <t>PELLINO phosphorilated</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L-lysine</t>
+  </si>
+  <si>
+    <t>aminoacid</t>
+  </si>
+  <si>
+    <t>MOD:00021 or CHEBI:29967</t>
+  </si>
+  <si>
+    <t>K63</t>
+  </si>
+  <si>
+    <t>tf and RPIITFAEB and ssDb of nfkb</t>
+  </si>
+  <si>
+    <t>TRPIIP located in nuc</t>
+  </si>
+  <si>
+    <t>complexes without process forming them</t>
+  </si>
+  <si>
+    <t>has_part</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>complex modified</t>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b subunit beta</t>
+  </si>
+  <si>
+    <t>p38</t>
+  </si>
+  <si>
+    <t>mitogen-activated protein kinase 1</t>
+  </si>
+  <si>
+    <t>PRO:000000103</t>
+  </si>
+  <si>
+    <t>p50</t>
+  </si>
+  <si>
+    <t>nuclear factor NF-kappa-B p105 subunit isoform 1 cleaved 1</t>
+  </si>
+  <si>
+    <t>Toll like receptor 9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001160</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR9+TLR9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>protein complex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>post transcriptional modifiction</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DDbp</t>
-  </si>
-  <si>
-    <t>TFDBp located in endo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pop located in  endo cyto</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>phomp</t>
-  </si>
-  <si>
-    <t>nlsb of IRF7pIRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein homodimerization process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>PRO?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CpGb of TLR9di</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000001757</t>
+  </si>
+  <si>
+    <t>p65</t>
+  </si>
+  <si>
+    <t>nfkb</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>IKBpK48ub</t>
+  </si>
+  <si>
+    <t>Ubc13</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 variant 1</t>
+  </si>
+  <si>
+    <t>Uev1A</t>
+  </si>
+  <si>
+    <t>Ubiquitin-conjugating enzyme E2 N</t>
+  </si>
+  <si>
+    <t>TIFA</t>
+  </si>
+  <si>
+    <t>TRAF-interacting protein with FHA domain-containing protein A</t>
+  </si>
+  <si>
+    <t>tak1</t>
+  </si>
+  <si>
+    <t>TNF associated kinase 1</t>
+  </si>
+  <si>
+    <t>tab1</t>
+  </si>
+  <si>
+    <t>post transcriptional modification on tf6 part of the complex</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where tf6 is polyubiquitineted</t>
+  </si>
+  <si>
+    <t>IKBpK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBphosphorilated bound ubiquitin in lysin 48 +Nfkb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IKBpNfkb</t>
+  </si>
+  <si>
+    <t>IKB phosphorilated+NFKB</t>
+  </si>
+  <si>
+    <t>PRO:000001772</t>
+  </si>
+  <si>
+    <t>Nemo</t>
+  </si>
+  <si>
+    <t>NEMO</t>
+  </si>
+  <si>
+    <t>PRO:000001752</t>
+  </si>
+  <si>
+    <t>IKKa</t>
+  </si>
+  <si>
+    <t>inhibitor of nuclear factor kappa-b kinase subunit alpha</t>
+  </si>
+  <si>
+    <t>PRO:000001775</t>
+  </si>
+  <si>
+    <t>IKKb</t>
+  </si>
+  <si>
+    <t>GO:0005938</t>
+  </si>
+  <si>
+    <t>IkbK</t>
+  </si>
+  <si>
+    <t>IkappaB kinase complex</t>
+  </si>
+  <si>
+    <t>GO:0008385</t>
+  </si>
+  <si>
+    <t>Ubc13-Uev1A</t>
+  </si>
+  <si>
+    <t>UBC13-Uev1A complex</t>
+  </si>
+  <si>
+    <t>GO?</t>
+  </si>
+  <si>
+    <t>IKBNFkb</t>
+  </si>
+  <si>
+    <t>I-kappaB/NF-kappaB complex</t>
+  </si>
+  <si>
+    <t>GO:0033256</t>
+  </si>
+  <si>
+    <t>ddb</t>
+  </si>
+  <si>
+    <t>death domain binding</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0070513</t>
+  </si>
+  <si>
+    <t>fhab</t>
+  </si>
+  <si>
+    <t>Fha domain binding</t>
   </si>
   <si>
     <t>GO:?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>nuclear localization sequence binding</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">protein aminoacid phosphoriltion </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0006468 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trafdb</t>
+  </si>
+  <si>
+    <t>traf domain binding</t>
+  </si>
+  <si>
+    <t>RPIITFAEB</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, enhancer binding</t>
+  </si>
+  <si>
+    <t>GO:0003705</t>
+  </si>
+  <si>
+    <t>ssDb</t>
+  </si>
+  <si>
+    <t>sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0043565</t>
+  </si>
+  <si>
+    <t>tf</t>
+  </si>
+  <si>
+    <t>trancription factor activity</t>
+  </si>
+  <si>
+    <t>GO:0003700</t>
+  </si>
+  <si>
+    <t>ddp</t>
   </si>
   <si>
     <t>dd domain binding process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>molecular function</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KD of TBK and IKKe part of TBK1tankk63ubIKKe and KB of IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7pTBK1-tank-IKKe-&gt;IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>process</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GO:0043241 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>protein complex disassembly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pcompxda</t>
-  </si>
-  <si>
-    <t>pcompxda</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>conformational change of irfp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF7pIRF7p translocate to nucleus   </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>complexes without process forming them</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_part</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1-Tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1+tank+IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdsb</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7 phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">post transcriptional modification </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF-7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spreadsheet id</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Last edited</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>super(s)</t>
   </si>
   <si>
     <t>gene product</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000002049</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGm complex dimer + IRAk4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4  complex  +IRAK1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IRK1p</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1complex where IRAK1 is phosphorilated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">anna amria </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9 mapk signaling</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Spreadsheet id </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR902</t>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TFBD of tank </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR9diCpGmIRK4IK1pptf6IRF7+TBK1-tank-Ikke-&gt;TLR9diCpGmIRK4IK1pptf6IRF7TBK1-tank-IKKe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO?</t>
+  </si>
+  <si>
+    <t>IRK4</t>
+  </si>
+  <si>
+    <t>traf domain binding process</t>
+  </si>
+  <si>
+    <t>ankdb</t>
+  </si>
+  <si>
+    <t>ANK domain Binding process</t>
+  </si>
+  <si>
+    <t>rhdb</t>
+  </si>
+  <si>
+    <t>RHD domain binding process</t>
+  </si>
+  <si>
+    <t>pub</t>
+  </si>
+  <si>
+    <t>protein ubiquituination</t>
+  </si>
+  <si>
+    <t>GO:0016567</t>
+  </si>
+  <si>
+    <t>RLbp</t>
+  </si>
+  <si>
+    <t>L-lysine at position 63 of a protein</t>
+  </si>
+  <si>
+    <t>K48</t>
+  </si>
+  <si>
+    <t>protein polyubiquitination</t>
+  </si>
+  <si>
+    <t>GO:0000209</t>
+  </si>
+  <si>
+    <t>zfbd</t>
+  </si>
+  <si>
+    <t>zinc finger binding domain</t>
+  </si>
+  <si>
+    <t>pubbp</t>
+  </si>
+  <si>
+    <t>polyubiquitination binding process</t>
+  </si>
+  <si>
+    <t>ubdpcp</t>
+  </si>
+  <si>
+    <t>ubiquitin-dependent protein catabolic process</t>
   </si>
 </sst>
 </file>
@@ -1919,7 +1919,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F152"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A39" workbookViewId="0">
@@ -1935,25 +1934,25 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>236</v>
@@ -1965,7 +1964,7 @@
         <v>38646</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1979,10 +1978,10 @@
     </row>
     <row r="4" spans="1:6" ht="26">
       <c r="A4" s="1" t="s">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2031,19 +2030,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -2057,16 +2056,16 @@
     </row>
     <row r="12" spans="1:6" ht="39">
       <c r="A12" s="1" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>323</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>304</v>
+        <v>173</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2089,39 +2088,39 @@
     </row>
     <row r="15" spans="1:6" ht="26">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>336</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>411</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="27" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>340</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="26">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>413</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>218</v>
@@ -2159,7 +2158,7 @@
         <v>225</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>226</v>
@@ -2175,10 +2174,10 @@
         <v>228</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2194,84 +2193,84 @@
         <v>219</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>146</v>
+        <v>307</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="52">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>309</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="39">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="52">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="26">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>316</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" ht="39">
       <c r="A26" s="1" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2279,13 +2278,13 @@
     </row>
     <row r="27" spans="1:6" ht="39">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>317</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2325,174 +2324,174 @@
     </row>
     <row r="30" spans="1:6" ht="52">
       <c r="A30" s="1" t="s">
-        <v>5</v>
+        <v>347</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>348</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="39">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>349</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" ht="78">
       <c r="A32" s="1" t="s">
-        <v>9</v>
+        <v>351</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" ht="39">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" ht="52">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>355</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" ht="52">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="52">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>363</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="26">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>364</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>366</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="78">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>367</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>368</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>369</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="65">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>293</v>
+        <v>162</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65">
       <c r="A40" s="1" t="s">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>219</v>
@@ -2503,221 +2502,221 @@
     </row>
     <row r="41" spans="1:6" ht="52">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>171</v>
+        <v>332</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" ht="78">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>334</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>335</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" ht="65">
       <c r="A43" s="1" t="s">
-        <v>1</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="65">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="65">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>346</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="52">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>358</v>
+        <v>99</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="52">
       <c r="A47" s="1" t="s">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="52">
       <c r="A48" s="1" t="s">
-        <v>356</v>
+        <v>97</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="78">
       <c r="A49" s="1" t="s">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>425</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" ht="91">
       <c r="A50" s="1" t="s">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>166</v>
+        <v>327</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" ht="26">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>328</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" ht="78">
       <c r="A53" s="1" t="s">
-        <v>302</v>
+        <v>171</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>412</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" ht="78">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>357</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>358</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>14</v>
+        <v>356</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -2725,13 +2724,13 @@
     </row>
     <row r="55" spans="1:6" ht="65">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
+        <v>360</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2739,10 +2738,10 @@
     </row>
     <row r="56" spans="1:6" ht="91">
       <c r="A56" s="1" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>362</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>181</v>
@@ -2785,32 +2784,32 @@
     </row>
     <row r="59" spans="1:6" ht="26">
       <c r="A59" s="1" t="s">
-        <v>326</v>
+        <v>67</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>327</v>
+        <v>68</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" ht="26">
       <c r="A60" s="1" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>254</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>253</v>
+        <v>122</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -2826,164 +2825,164 @@
         <v>184</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>29</v>
+        <v>371</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" ht="39">
       <c r="A62" s="1" t="s">
-        <v>30</v>
+        <v>372</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>373</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>374</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" ht="39">
       <c r="A63" s="1" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>376</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" ht="39">
       <c r="A64" s="5" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>37</v>
+        <v>379</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" ht="39">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" ht="26">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>385</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" ht="26">
       <c r="A67" s="1" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>47</v>
+        <v>389</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" ht="104">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>390</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
+        <v>391</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>50</v>
+        <v>392</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" ht="39">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>393</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>394</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" ht="39">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>396</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>55</v>
+        <v>397</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>56</v>
+        <v>398</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" ht="39">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>399</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>400</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -2991,29 +2990,29 @@
     </row>
     <row r="72" spans="1:6" ht="52">
       <c r="A72" s="1" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" ht="39">
       <c r="A73" s="1" t="s">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>233</v>
@@ -3029,90 +3028,90 @@
         <v>231</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" ht="39">
       <c r="A75" s="1" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" ht="39">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>415</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>74</v>
+        <v>416</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" ht="39">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" ht="39">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>419</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>420</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" ht="52">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3122,474 +3121,474 @@
         <v>239</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>372</v>
+        <v>113</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>373</v>
+        <v>114</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" ht="52">
       <c r="A81" s="1" t="s">
-        <v>374</v>
+        <v>115</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>375</v>
+        <v>116</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82" spans="1:6" ht="39">
       <c r="A82" s="1" t="s">
-        <v>376</v>
+        <v>117</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>84</v>
+        <v>426</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83" spans="1:6" ht="39">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>427</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>428</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84" spans="1:6" ht="39">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>429</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>430</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:6" ht="65">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>431</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>432</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" ht="78">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" ht="52">
       <c r="A87" s="1" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" ht="52">
       <c r="A88" s="1" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" ht="52">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6" ht="52">
       <c r="A90" s="1" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" ht="52">
       <c r="A91" s="1" t="s">
-        <v>106</v>
+        <v>267</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
     </row>
     <row r="92" spans="1:6" ht="26">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" ht="26">
       <c r="A93" s="1" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>114</v>
+        <v>275</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
     </row>
     <row r="94" spans="1:6" ht="26">
       <c r="A94" s="1" t="s">
-        <v>115</v>
+        <v>276</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>118</v>
+        <v>279</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>117</v>
+        <v>278</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
     </row>
     <row r="96" spans="1:6" ht="26">
       <c r="A96" s="1" t="s">
-        <v>122</v>
+        <v>283</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" ht="39">
       <c r="A97" s="1" t="s">
-        <v>125</v>
+        <v>286</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>287</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>127</v>
+        <v>288</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
     <row r="98" spans="1:6" ht="26">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" ht="52">
       <c r="A99" s="1" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" ht="26">
       <c r="A100" s="1" t="s">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>136</v>
+        <v>297</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
     <row r="101" spans="1:6" ht="52">
       <c r="A101" s="1" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
     <row r="102" spans="1:6" ht="52">
       <c r="A102" s="1" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>293</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:6" ht="39">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>139</v>
+        <v>300</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
     <row r="104" spans="1:6" ht="26">
       <c r="A104" s="1" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>141</v>
+        <v>302</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
     <row r="105" spans="1:6" ht="26">
       <c r="A105" s="1" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>144</v>
+        <v>305</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" ht="26">
       <c r="A106" s="1" t="s">
-        <v>285</v>
+        <v>154</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>286</v>
+        <v>155</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>287</v>
+        <v>156</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
     </row>
     <row r="107" spans="1:6" ht="39">
       <c r="A107" s="1" t="s">
-        <v>288</v>
+        <v>157</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>290</v>
+        <v>159</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
     </row>
     <row r="108" spans="1:6" ht="26">
       <c r="A108" s="1" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" ht="26">
       <c r="A109" s="1" t="s">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>336</v>
+        <v>77</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3597,32 +3596,32 @@
     </row>
     <row r="110" spans="1:6" ht="26">
       <c r="A110" s="1" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" ht="39">
       <c r="A111" s="1" t="s">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>145</v>
+        <v>306</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
@@ -3645,19 +3644,19 @@
     </row>
     <row r="114" spans="1:6" ht="26">
       <c r="A114" s="2" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>191</v>
@@ -3665,13 +3664,13 @@
     </row>
     <row r="115" spans="1:6" ht="52">
       <c r="A115" s="1" t="s">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>180</v>
+        <v>341</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>252</v>
+        <v>121</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -3693,7 +3692,7 @@
         <v>250</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>324</v>
+        <v>65</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -3701,13 +3700,13 @@
     </row>
     <row r="118" spans="1:6" ht="52">
       <c r="A118" s="1" t="s">
-        <v>329</v>
+        <v>70</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>251</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -3717,13 +3716,13 @@
     </row>
     <row r="119" spans="1:6" ht="65">
       <c r="A119" s="6" t="s">
-        <v>330</v>
+        <v>71</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>264</v>
+        <v>133</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -3733,13 +3732,13 @@
     </row>
     <row r="120" spans="1:6" ht="65">
       <c r="A120" s="1" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -3747,13 +3746,13 @@
     </row>
     <row r="121" spans="1:6" ht="52">
       <c r="A121" s="1" t="s">
-        <v>314</v>
+        <v>55</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -3761,7 +3760,7 @@
     </row>
     <row r="122" spans="1:6" ht="78">
       <c r="A122" s="1" t="s">
-        <v>298</v>
+        <v>167</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>197</v>
@@ -3775,10 +3774,10 @@
     </row>
     <row r="123" spans="1:6" ht="78">
       <c r="A123" s="1" t="s">
-        <v>351</v>
+        <v>92</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>346</v>
+        <v>87</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>199</v>
@@ -3811,7 +3810,7 @@
         <v>205</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -3867,10 +3866,10 @@
     </row>
     <row r="129" spans="1:6" ht="52">
       <c r="A129" s="1" t="s">
-        <v>360</v>
+        <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>208</v>
@@ -3881,29 +3880,29 @@
     </row>
     <row r="130" spans="1:6" ht="91">
       <c r="A130" s="1" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>269</v>
+        <v>138</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>270</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="65">
       <c r="A131" s="1" t="s">
-        <v>271</v>
+        <v>140</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>272</v>
+        <v>141</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>273</v>
+        <v>142</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -3911,10 +3910,10 @@
     </row>
     <row r="132" spans="1:6" ht="156">
       <c r="A132" s="1" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>216</v>
@@ -3925,13 +3924,13 @@
     </row>
     <row r="133" spans="1:6" ht="39">
       <c r="A133" s="1" t="s">
-        <v>276</v>
+        <v>145</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>277</v>
+        <v>146</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>147</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -3939,10 +3938,10 @@
     </row>
     <row r="134" spans="1:6" ht="117">
       <c r="A134" s="1" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>280</v>
+        <v>149</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>216</v>
@@ -3953,13 +3952,13 @@
     </row>
     <row r="135" spans="1:6" ht="52">
       <c r="A135" s="1" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>282</v>
+        <v>151</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>283</v>
+        <v>152</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -3967,13 +3966,13 @@
     </row>
     <row r="136" spans="1:6" ht="52">
       <c r="A136" s="1" t="s">
-        <v>308</v>
+        <v>177</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>309</v>
+        <v>178</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>310</v>
+        <v>179</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -3981,13 +3980,13 @@
     </row>
     <row r="137" spans="1:6" ht="78">
       <c r="A137" s="1" t="s">
-        <v>311</v>
+        <v>180</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -3995,13 +3994,13 @@
     </row>
     <row r="138" spans="1:6" ht="39">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4009,13 +4008,13 @@
     </row>
     <row r="139" spans="1:6" ht="52">
       <c r="A139" s="1" t="s">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>159</v>
+        <v>320</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4047,10 +4046,10 @@
     </row>
     <row r="143" spans="1:6" ht="65">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4067,10 +4066,10 @@
     </row>
     <row r="145" spans="1:6" ht="26">
       <c r="A145" s="1" t="s">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4080,21 +4079,21 @@
     <row r="146" spans="1:6" ht="26">
       <c r="A146" s="1"/>
       <c r="B146" s="1" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>318</v>
+        <v>59</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4103,10 +4102,10 @@
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>60</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4116,13 +4115,13 @@
     <row r="149" spans="1:6" ht="26">
       <c r="A149" s="1"/>
       <c r="B149" s="1" t="s">
-        <v>321</v>
+        <v>62</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>317</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4151,7 +4150,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -4162,7 +4161,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A9" workbookViewId="0">
@@ -4179,44 +4177,44 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26">
       <c r="A1" s="2" t="s">
-        <v>428</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>60</v>
+        <v>402</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>403</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>404</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>405</v>
       </c>
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="26">
       <c r="A2" s="1" t="s">
-        <v>429</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="12">
         <v>38654</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="26">
       <c r="A3" s="1" t="s">
-        <v>353</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="11"/>
@@ -4226,7 +4224,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="11"/>
@@ -4236,7 +4234,7 @@
     <row r="5" spans="1:6" ht="26">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="11"/>
@@ -4245,19 +4243,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -4274,207 +4272,207 @@
         <v>237</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>418</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>419</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>421</v>
+        <v>41</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="39">
       <c r="A9" s="1" t="s">
-        <v>414</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" ht="26">
       <c r="A10" s="1" t="s">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="39">
       <c r="A11" s="1" t="s">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="52">
       <c r="A12" s="1" t="s">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>378</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="91">
       <c r="A13" s="1" t="s">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>379</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>381</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>417</v>
+        <v>37</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="39">
       <c r="A14" s="1" t="s">
-        <v>406</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>404</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>402</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>403</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="52">
       <c r="A15" s="1" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>398</v>
+        <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>269</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="39">
       <c r="A16" s="1" t="s">
-        <v>383</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>396</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>397</v>
+        <v>17</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="39">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>388</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>362</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>377</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="39">
       <c r="A18" s="1" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>394</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>388</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>395</v>
+        <v>15</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="39">
       <c r="A19" s="1" t="s">
-        <v>386</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>389</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>390</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="52">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>392</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>393</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -4482,10 +4480,10 @@
     <row r="21" spans="1:6" ht="65">
       <c r="A21" s="1"/>
       <c r="B21" s="9" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>410</v>
+        <v>30</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -4494,13 +4492,13 @@
     <row r="22" spans="1:6" ht="26">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
-        <v>411</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -4531,19 +4529,19 @@
     </row>
     <row r="26" spans="1:6" ht="26">
       <c r="A26" s="2" t="s">
-        <v>343</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>344</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>345</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>191</v>
@@ -4551,13 +4549,13 @@
     </row>
     <row r="27" spans="1:6" ht="78">
       <c r="A27" s="8" t="s">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>382</v>
+        <v>2</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="2"/>
@@ -4565,13 +4563,13 @@
     </row>
     <row r="28" spans="1:6" ht="104">
       <c r="A28" s="1" t="s">
-        <v>432</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>431</v>
+        <v>51</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>384</v>
+        <v>4</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -4579,13 +4577,13 @@
     </row>
     <row r="29" spans="1:6" ht="104">
       <c r="A29" s="1" t="s">
-        <v>368</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>399</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>385</v>
+        <v>5</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4593,13 +4591,13 @@
     </row>
     <row r="30" spans="1:6" ht="65">
       <c r="A30" s="1" t="s">
-        <v>401</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>405</v>
+        <v>25</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4607,13 +4605,13 @@
     </row>
     <row r="31" spans="1:6" ht="46" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>348</v>
+        <v>89</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -4621,13 +4619,13 @@
     </row>
     <row r="32" spans="1:6" ht="39">
       <c r="A32" s="1" t="s">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>408</v>
+        <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -4636,7 +4634,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
